--- a/public/documentation/aact_data_definitions.xlsx
+++ b/public/documentation/aact_data_definitions.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27211"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tibbs001/work/aact-admin-1/public/documentation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="-80" windowWidth="24800" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="3040" yWindow="460" windowWidth="24800" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="AACT Tables and Columns" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -58,7 +66,6 @@
         <i/>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
       </rPr>
       <t>'secondary_id'</t>
     </r>
@@ -76,7 +83,6 @@
         <i/>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
       </rPr>
       <t>'nct_id'</t>
     </r>
@@ -94,7 +100,6 @@
         <i/>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
       </rPr>
       <t>'nct_alias'</t>
     </r>
@@ -157,7 +162,6 @@
         <sz val="12"/>
         <color indexed="20"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
       </rPr>
       <t>'Baseline</t>
     </r>
@@ -176,7 +180,6 @@
         <sz val="12"/>
         <color indexed="20"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
       </rPr>
       <t>'Outcome',</t>
     </r>
@@ -195,7 +198,6 @@
         <sz val="12"/>
         <color indexed="20"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
       </rPr>
       <t>Reported Event</t>
     </r>
@@ -214,7 +216,6 @@
         <sz val="12"/>
         <color indexed="20"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
       </rPr>
       <t>Participant Flow</t>
     </r>
@@ -387,7 +388,6 @@
         <i/>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
       </rPr>
       <t>'collaborator'</t>
     </r>
@@ -1022,7 +1022,6 @@
         <i/>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
       </rPr>
       <t>'results_reference'</t>
     </r>
@@ -1146,7 +1145,6 @@
         <i/>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
       </rPr>
       <t>'backup'</t>
     </r>
@@ -1164,7 +1162,6 @@
         <i/>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
       </rPr>
       <t>'regular'</t>
     </r>
@@ -1402,7 +1399,6 @@
         <sz val="12"/>
         <color indexed="20"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
       </rPr>
       <t>'other'</t>
     </r>
@@ -2743,7 +2739,6 @@
         <i/>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
       </rPr>
       <t>'backup'</t>
     </r>
@@ -2963,7 +2958,6 @@
         <i/>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
       </rPr>
       <t>"From a utility standpoint, the new &lt;last_update_posted&gt; date is likely the date that most people want to search. We previously did not have this date available and the old &lt;lastchanged_date&gt; was the closest alternative, though problematic because it never meant what was implied by the name. The _posted suffix indicates the date that a submission was made public on ClinicalTrials.gov. Typically, posting occurs the business day after qc review was successfully completed. We began collecting posted dates in early 2017. Dates from before then are estmates. All posted dates include a type attribute of Actual or Estimate."</t>
     </r>
@@ -3024,7 +3018,6 @@
         <i/>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
       </rPr>
       <t>The _submitted suffix indicates the date that the responsible party pressed the release button in the ClinicalTrials.gov data submission system, thereby submitting the data for review prior to posting."</t>
     </r>
@@ -3043,7 +3036,6 @@
         <i/>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
       </rPr>
       <t>"The _posted suffix indicates the date that a submission was made public on ClinicalTrials.gov. Typically, posting occurs the business day after qc review was successfully completed. We began collecting posted dates in early 2017. Dates from before then are estmates. All posted dates include a type attribute of Actual or Estimate."</t>
     </r>
@@ -3137,7 +3129,6 @@
         <i/>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
       </rPr>
       <t>The _posted suffix indicates the date that a submission was made public on ClinicalTrials.gov. Typically, posting occurs the business day after qc review was successfully completed. We began collecting posted dates in early 2017. Dates from before then are estmates. All posted dates include a type attribute of Actual or Estimate."</t>
     </r>
@@ -3152,7 +3143,6 @@
         <i/>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
       </rPr>
       <t>"The _submitted_qc suffix indicates the submission date of the version of the record that met quality control criteria. It is common for there to be revisions between the first submission and the submission that meets qc criteria. Note this is not the date that the qc review was complete</t>
     </r>
@@ -3175,7 +3165,6 @@
         <i/>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
       </rPr>
       <t>The _submitted_qc suffix indicates the submission date of the version of the record that met quality control criteria. It is common for there to be revisions between the first submission and the submission that meets qc criteria. Note this is not the date that the qc review was completed."</t>
     </r>
@@ -3190,7 +3179,6 @@
         <i/>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
       </rPr>
       <t>The _submitted_qc suffix indicates the submission date of the version of the record that met quality control criteria. It is common for there to be revisions between the first submission and the submission that meets qc criteria. Note this is not the date that the qc review was completed</t>
     </r>
@@ -3222,7 +3210,6 @@
         <i/>
         <sz val="12"/>
         <rFont val="Arial"/>
-        <charset val="204"/>
       </rPr>
       <t>The _submitted suffix indicates the date that the responsible party pressed the release button in the ClinicalTrials.gov data submission system, thereby submitting the data for review prior to posting</t>
     </r>
@@ -3370,14 +3357,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -3395,7 +3376,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="204"/>
     </font>
     <font>
       <u/>
@@ -3413,7 +3393,6 @@
       <i/>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3426,7 +3405,6 @@
       <sz val="12"/>
       <color indexed="20"/>
       <name val="Arial"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3442,27 +3420,35 @@
       <sz val="12"/>
       <color indexed="63"/>
       <name val="Arial"/>
-      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3501,7 +3487,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3634,14 +3620,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3649,7 +3657,12 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4075,27 +4088,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H399"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="C319" sqref="C319"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="14"/>
-    <col min="3" max="3" width="19.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="14"/>
+    <col min="3" max="3" width="19.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="29" customWidth="1"/>
-    <col min="9" max="16384" width="10.7109375" style="2"/>
+    <col min="6" max="6" width="19.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="29" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1" ht="17" customHeight="1">
+    <row r="1" spans="1:8" s="11" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="17" t="s">
         <v>716</v>
       </c>
@@ -4118,7 +4131,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4142,7 +4155,7 @@
       </c>
       <c r="H2" s="39"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f>(A2+1)</f>
         <v>2</v>
@@ -4166,9 +4179,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <f>(A3+1)</f>
+        <f t="shared" ref="A4:A67" si="0">(A3+1)</f>
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -4190,9 +4203,9 @@
         <v>772</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A69" si="0">(A4+1)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -4214,7 +4227,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="6" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4239,7 +4252,7 @@
       </c>
       <c r="H6" s="30"/>
     </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4264,7 +4277,7 @@
       </c>
       <c r="H7" s="38"/>
     </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1">
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4291,7 +4304,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="34" customFormat="1" ht="17" customHeight="1">
+    <row r="9" spans="1:8" s="34" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4318,7 +4331,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="34" customFormat="1" ht="17" customHeight="1">
+    <row r="10" spans="1:8" s="34" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4343,7 +4356,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1">
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4370,7 +4383,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="34" customFormat="1" ht="17" customHeight="1">
+    <row r="12" spans="1:8" s="34" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4397,7 +4410,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="34" customFormat="1" ht="17" customHeight="1">
+    <row r="13" spans="1:8" s="34" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4424,7 +4437,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="34" customFormat="1" ht="17" customHeight="1">
+    <row r="14" spans="1:8" s="34" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4451,7 +4464,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="34" customFormat="1" ht="17" customHeight="1">
+    <row r="15" spans="1:8" s="34" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4476,7 +4489,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="34" customFormat="1" ht="17" customHeight="1">
+    <row r="16" spans="1:8" s="34" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4503,7 +4516,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="34" customFormat="1" ht="17" customHeight="1">
+    <row r="17" spans="1:8" s="34" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4530,7 +4543,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1">
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4554,7 +4567,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1">
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4579,7 +4592,7 @@
       </c>
       <c r="H19" s="38"/>
     </row>
-    <row r="20" spans="1:8" ht="17" customHeight="1">
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4603,7 +4616,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" customHeight="1">
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4628,7 +4641,7 @@
       </c>
       <c r="H21" s="38"/>
     </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1">
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4653,7 +4666,7 @@
       </c>
       <c r="H22" s="38"/>
     </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1">
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4678,7 +4691,7 @@
       </c>
       <c r="H23" s="38"/>
     </row>
-    <row r="24" spans="1:8" ht="17" customHeight="1">
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4703,7 +4716,7 @@
       </c>
       <c r="H24" s="38"/>
     </row>
-    <row r="25" spans="1:8" ht="17" customHeight="1">
+    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4728,7 +4741,7 @@
       </c>
       <c r="H25" s="38"/>
     </row>
-    <row r="26" spans="1:8" ht="17" customHeight="1">
+    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4753,7 +4766,7 @@
       </c>
       <c r="H26" s="38"/>
     </row>
-    <row r="27" spans="1:8" ht="17" customHeight="1">
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4773,11 +4786,11 @@
       <c r="G27" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="H27" s="51" t="s">
+      <c r="H27" s="50" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" customHeight="1">
+    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4801,7 +4814,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" customHeight="1">
+    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4825,7 +4838,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="30" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4850,7 +4863,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17" customHeight="1">
+    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4874,7 +4887,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" customHeight="1">
+    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4898,7 +4911,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17" customHeight="1">
+    <row r="33" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4922,7 +4935,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" customHeight="1">
+    <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4946,7 +4959,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17" customHeight="1">
+    <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4970,7 +4983,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17" customHeight="1">
+    <row r="36" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4997,7 +5010,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17" customHeight="1">
+    <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5021,7 +5034,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17" customHeight="1">
+    <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5045,7 +5058,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="39" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5070,7 +5083,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17" customHeight="1">
+    <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5094,7 +5107,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17" customHeight="1">
+    <row r="41" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5118,7 +5131,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17" customHeight="1">
+    <row r="42" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5142,7 +5155,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17" customHeight="1">
+    <row r="43" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5166,7 +5179,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17" customHeight="1">
+    <row r="44" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5190,7 +5203,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17" customHeight="1">
+    <row r="45" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5214,7 +5227,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17" customHeight="1">
+    <row r="46" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -5239,7 +5252,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" customHeight="1">
+    <row r="47" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -5263,7 +5276,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17" customHeight="1">
+    <row r="48" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -5287,7 +5300,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17" customHeight="1">
+    <row r="49" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -5311,7 +5324,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="17" customHeight="1">
+    <row r="50" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5335,7 +5348,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="17" customHeight="1">
+    <row r="51" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5359,7 +5372,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="17" customHeight="1">
+    <row r="52" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -5386,7 +5399,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="17" customHeight="1">
+    <row r="53" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -5410,7 +5423,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="17" customHeight="1">
+    <row r="54" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -5434,7 +5447,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="17" customHeight="1">
+    <row r="55" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -5454,11 +5467,11 @@
       <c r="G55" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="H55" s="51" t="s">
+      <c r="H55" s="50" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="17" customHeight="1">
+    <row r="56" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -5478,14 +5491,14 @@
       <c r="G56" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H56" s="51" t="s">
+      <c r="H56" s="50" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="17" customHeight="1">
-      <c r="A57" s="2" t="e">
-        <f>(#REF!+1)</f>
-        <v>#REF!</v>
+    <row r="57" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>140</v>
@@ -5502,14 +5515,14 @@
       <c r="G57" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="H57" s="51" t="s">
+      <c r="H57" s="50" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="17" customHeight="1">
-      <c r="A58" s="2" t="e">
+    <row r="58" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>57</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>140</v>
@@ -5526,14 +5539,14 @@
       <c r="G58" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="H58" s="51" t="s">
+      <c r="H58" s="50" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="17" customHeight="1">
-      <c r="A59" s="2" t="e">
+    <row r="59" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>58</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>140</v>
@@ -5550,14 +5563,14 @@
       <c r="G59" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="H59" s="51" t="s">
+      <c r="H59" s="50" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="17" customHeight="1">
+    <row r="60" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <f>(A56+1)</f>
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>222</v>
@@ -5578,10 +5591,10 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="17" customHeight="1">
+    <row r="61" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>222</v>
@@ -5602,10 +5615,10 @@
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="17" customHeight="1">
-      <c r="A62" s="2" t="e">
-        <f>(A57+1)</f>
-        <v>#REF!</v>
+    <row r="62" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>216</v>
@@ -5625,11 +5638,15 @@
       <c r="G62" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="H62" s="52" t="s">
+      <c r="H62" s="51" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="17" customHeight="1">
+    <row r="63" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
       <c r="B63" s="14" t="s">
         <v>846</v>
       </c>
@@ -5648,11 +5665,15 @@
       <c r="G63" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H63" s="51" t="s">
+      <c r="H63" s="50" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="17" customHeight="1">
+    <row r="64" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
       <c r="B64" s="14" t="s">
         <v>847</v>
       </c>
@@ -5668,14 +5689,14 @@
       <c r="G64" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="H64" s="51" t="s">
+      <c r="H64" s="50" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="17" customHeight="1">
+    <row r="65" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
-        <f>(A61+1)</f>
-        <v>58</v>
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>216</v>
@@ -5695,14 +5716,14 @@
       <c r="G65" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="H65" s="52" t="s">
+      <c r="H65" s="51" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="17" customHeight="1">
+    <row r="66" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>217</v>
@@ -5722,14 +5743,14 @@
       <c r="G66" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H66" s="51" t="s">
+      <c r="H66" s="50" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="17" customHeight="1">
+    <row r="67" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>139</v>
@@ -5749,14 +5770,14 @@
       <c r="G67" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H67" s="51" t="s">
+      <c r="H67" s="50" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="17" customHeight="1">
+    <row r="68" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <f t="shared" si="0"/>
-        <v>61</v>
+        <f t="shared" ref="A68:A131" si="1">(A67+1)</f>
+        <v>67</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>139</v>
@@ -5776,14 +5797,14 @@
       <c r="G68" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H68" s="51" t="s">
+      <c r="H68" s="50" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="17" customHeight="1">
+    <row r="69" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <f t="shared" si="1"/>
+        <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>216</v>
@@ -5807,10 +5828,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="17" customHeight="1">
+    <row r="70" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <f t="shared" ref="A70:A133" si="1">(A69+1)</f>
-        <v>63</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>140</v>
@@ -5834,10 +5855,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="17" customHeight="1">
+    <row r="71" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>134</v>
@@ -5858,10 +5879,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="17" customHeight="1">
+    <row r="72" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>216</v>
@@ -5883,10 +5904,10 @@
       </c>
       <c r="H72" s="31"/>
     </row>
-    <row r="73" spans="1:8" ht="17" customHeight="1">
+    <row r="73" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>140</v>
@@ -5907,10 +5928,10 @@
         <v>237</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="17" customHeight="1">
+    <row r="74" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <f t="shared" si="1"/>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>140</v>
@@ -5931,10 +5952,10 @@
         <v>338</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="17" customHeight="1">
+    <row r="75" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>216</v>
@@ -5956,10 +5977,10 @@
       </c>
       <c r="H75" s="31"/>
     </row>
-    <row r="76" spans="1:8" ht="17" customHeight="1">
+    <row r="76" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>140</v>
@@ -5980,10 +6001,10 @@
         <v>237</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="17" customHeight="1">
+    <row r="77" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>140</v>
@@ -6004,10 +6025,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="17" customHeight="1">
+    <row r="78" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>216</v>
@@ -6029,10 +6050,10 @@
       </c>
       <c r="H78" s="31"/>
     </row>
-    <row r="79" spans="1:8" ht="17" customHeight="1">
+    <row r="79" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>140</v>
@@ -6053,10 +6074,10 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="17" customHeight="1">
+    <row r="80" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>139</v>
@@ -6080,10 +6101,10 @@
         <v>555</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="81" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <f t="shared" si="1"/>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
         <v>139</v>
@@ -6107,10 +6128,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="82" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
         <v>139</v>
@@ -6134,10 +6155,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="17" customHeight="1">
+    <row r="83" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B83" s="14" t="s">
         <v>139</v>
@@ -6161,10 +6182,10 @@
         <v>443</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="17" customHeight="1">
+    <row r="84" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <f t="shared" si="1"/>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>135</v>
@@ -6185,10 +6206,10 @@
         <v>346</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="85" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
         <v>139</v>
@@ -6212,10 +6233,10 @@
         <v>387</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="17" customHeight="1">
+    <row r="86" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <f t="shared" si="1"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>136</v>
@@ -6236,10 +6257,10 @@
         <v>547</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="87" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B87" s="19" t="s">
         <v>139</v>
@@ -6261,10 +6282,10 @@
       </c>
       <c r="H87" s="30"/>
     </row>
-    <row r="88" spans="1:8" ht="17" customHeight="1">
+    <row r="88" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>136</v>
@@ -6288,10 +6309,10 @@
         <v>555</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="17" customHeight="1">
+    <row r="89" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <f t="shared" si="1"/>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>136</v>
@@ -6315,10 +6336,10 @@
         <v>555</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="17" customHeight="1">
+    <row r="90" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>139</v>
@@ -6342,10 +6363,10 @@
         <v>324</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="17" customHeight="1">
+    <row r="91" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>139</v>
@@ -6369,10 +6390,10 @@
         <v>423</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="17" customHeight="1">
+    <row r="92" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>140</v>
@@ -6396,10 +6417,10 @@
         <v>324</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="17" customHeight="1">
+    <row r="93" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B93" s="14" t="s">
         <v>140</v>
@@ -6423,10 +6444,10 @@
         <v>423</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="17" customHeight="1">
+    <row r="94" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>216</v>
@@ -6450,10 +6471,10 @@
         <v>789</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="17" customHeight="1">
+    <row r="95" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>140</v>
@@ -6477,10 +6498,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="17" customHeight="1">
+    <row r="96" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>140</v>
@@ -6504,10 +6525,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="17" customHeight="1">
+    <row r="97" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <f t="shared" si="1"/>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>140</v>
@@ -6528,10 +6549,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="17" customHeight="1">
+    <row r="98" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>140</v>
@@ -6552,10 +6573,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="17" customHeight="1">
+    <row r="99" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>140</v>
@@ -6576,10 +6597,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="17" customHeight="1">
+    <row r="100" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>216</v>
@@ -6603,10 +6624,10 @@
         <v>789</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="17" customHeight="1">
+    <row r="101" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>140</v>
@@ -6630,10 +6651,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="17" customHeight="1">
+    <row r="102" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>140</v>
@@ -6654,10 +6675,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="17" customHeight="1">
+    <row r="103" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>216</v>
@@ -6681,10 +6702,10 @@
         <v>790</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="17" customHeight="1">
+    <row r="104" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>140</v>
@@ -6708,10 +6729,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="17" customHeight="1">
+    <row r="105" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B105" s="14" t="s">
         <v>140</v>
@@ -6732,10 +6753,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="17" customHeight="1">
+    <row r="106" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B106" s="15" t="s">
         <v>136</v>
@@ -6759,10 +6780,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="17" customHeight="1">
+    <row r="107" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>216</v>
@@ -6786,10 +6807,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="17" customHeight="1">
+    <row r="108" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>140</v>
@@ -6813,10 +6834,10 @@
         <v>541</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="17" customHeight="1">
+    <row r="109" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
         <v>140</v>
@@ -6837,10 +6858,10 @@
         <v>554</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="17" customHeight="1">
+    <row r="110" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B110" s="15" t="s">
         <v>140</v>
@@ -6864,10 +6885,10 @@
         <v>359</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="17" customHeight="1">
+    <row r="111" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B111" s="14" t="s">
         <v>134</v>
@@ -6888,10 +6909,10 @@
         <v>359</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="17" customHeight="1">
+    <row r="112" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>216</v>
@@ -6915,10 +6936,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="17" customHeight="1">
+    <row r="113" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B113" s="14" t="s">
         <v>140</v>
@@ -6942,10 +6963,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="17" customHeight="1">
+    <row r="114" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <f t="shared" si="1"/>
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>140</v>
@@ -6969,10 +6990,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="17" customHeight="1">
+    <row r="115" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B115" s="15" t="s">
         <v>134</v>
@@ -6993,10 +7014,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="17" customHeight="1">
+    <row r="116" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B116" s="14" t="s">
         <v>134</v>
@@ -7017,10 +7038,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="17" customHeight="1">
+    <row r="117" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B117" s="14" t="s">
         <v>140</v>
@@ -7041,10 +7062,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="17" customHeight="1">
+    <row r="118" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B118" s="15" t="s">
         <v>134</v>
@@ -7065,10 +7086,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="17" customHeight="1">
+    <row r="119" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>216</v>
@@ -7092,10 +7113,10 @@
         <v>632</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="17" customHeight="1">
+    <row r="120" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <f t="shared" si="1"/>
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B120" s="14" t="s">
         <v>140</v>
@@ -7119,10 +7140,10 @@
         <v>632</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="17" customHeight="1">
+    <row r="121" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <f t="shared" si="1"/>
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>140</v>
@@ -7143,10 +7164,10 @@
         <v>341</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
+    <row r="122" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B122" s="15" t="s">
         <v>140</v>
@@ -7168,10 +7189,10 @@
         <v>354</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
+    <row r="123" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B123" s="14" t="s">
         <v>140</v>
@@ -7193,10 +7214,10 @@
         <v>142</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
+    <row r="124" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B124" s="14" t="s">
         <v>140</v>
@@ -7218,10 +7239,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
+    <row r="125" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>140</v>
@@ -7243,10 +7264,10 @@
         <v>344</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
+    <row r="126" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <f t="shared" si="1"/>
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>140</v>
@@ -7268,10 +7289,10 @@
         <v>322</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
+    <row r="127" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B127" s="15" t="s">
         <v>671</v>
@@ -7293,10 +7314,10 @@
         <v>354</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1">
+    <row r="128" spans="1:8" s="33" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>726</v>
@@ -7318,10 +7339,10 @@
         <v>322</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="17" customHeight="1">
+    <row r="129" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <f t="shared" si="1"/>
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>136</v>
@@ -7345,10 +7366,10 @@
         <v>322</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="17" customHeight="1">
+    <row r="130" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <f t="shared" si="1"/>
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B130" s="14" t="s">
         <v>136</v>
@@ -7372,10 +7393,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="17" customHeight="1">
+    <row r="131" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <f t="shared" si="1"/>
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B131" s="15" t="s">
         <v>136</v>
@@ -7399,10 +7420,10 @@
         <v>322</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="17" customHeight="1">
+    <row r="132" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <f t="shared" si="1"/>
-        <v>125</v>
+        <f t="shared" ref="A132:A195" si="2">(A131+1)</f>
+        <v>131</v>
       </c>
       <c r="B132" s="14" t="s">
         <v>136</v>
@@ -7426,10 +7447,10 @@
         <v>322</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="17" customHeight="1">
+    <row r="133" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
-        <f t="shared" si="1"/>
-        <v>126</v>
+        <f t="shared" si="2"/>
+        <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>216</v>
@@ -7453,10 +7474,10 @@
         <v>596</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="17" customHeight="1">
+    <row r="134" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <f t="shared" ref="A134:A203" si="2">(A133+1)</f>
-        <v>127</v>
+        <f t="shared" si="2"/>
+        <v>133</v>
       </c>
       <c r="B134" s="14" t="s">
         <v>140</v>
@@ -7480,10 +7501,10 @@
         <v>596</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="17" customHeight="1">
+    <row r="135" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B135" s="14" t="s">
         <v>134</v>
@@ -7504,158 +7525,164 @@
         <v>596</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="17" customHeight="1">
-      <c r="A136" s="8">
-        <v>346</v>
-      </c>
-      <c r="B136" s="46" t="s">
+    <row r="136" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="2">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B136" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="C136" s="47" t="s">
+      <c r="C136" s="53" t="s">
         <v>819</v>
       </c>
-      <c r="D136" s="47" t="s">
+      <c r="D136" s="53" t="s">
         <v>356</v>
       </c>
-      <c r="E136" s="46" t="s">
+      <c r="E136" s="52" t="s">
         <v>839</v>
       </c>
-      <c r="F136" s="47" t="s">
+      <c r="F136" s="53" t="s">
         <v>827</v>
       </c>
-      <c r="G136" s="47" t="s">
+      <c r="G136" s="53" t="s">
         <v>828</v>
       </c>
-      <c r="H136" s="48" t="s">
+      <c r="H136" s="54" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="17" customHeight="1">
-      <c r="A137" s="8">
-        <v>347</v>
-      </c>
-      <c r="B137" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C137" s="5" t="s">
+    <row r="137" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="B137" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="C137" s="56" t="s">
         <v>819</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="56" t="s">
         <v>218</v>
       </c>
-      <c r="E137" s="8" t="s">
+      <c r="E137" s="57" t="s">
         <v>839</v>
       </c>
-      <c r="F137" s="5" t="s">
+      <c r="F137" s="56" t="s">
         <v>312</v>
       </c>
-      <c r="G137" s="5" t="s">
+      <c r="G137" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="H137" s="50" t="s">
+      <c r="H137" s="58" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="17" customHeight="1">
-      <c r="A138" s="8">
-        <v>348</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C138" s="5" t="s">
+    <row r="138" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="B138" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="C138" s="56" t="s">
         <v>819</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="56" t="s">
         <v>820</v>
       </c>
-      <c r="E138" s="8" t="s">
+      <c r="E138" s="57" t="s">
         <v>839</v>
       </c>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5" t="s">
+      <c r="F138" s="56"/>
+      <c r="G138" s="56" t="s">
         <v>824</v>
       </c>
-      <c r="H138" s="50" t="s">
+      <c r="H138" s="58" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="17" customHeight="1">
-      <c r="A139" s="8">
-        <v>349</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C139" s="5" t="s">
+    <row r="139" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="B139" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="C139" s="56" t="s">
         <v>819</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="56" t="s">
         <v>821</v>
       </c>
-      <c r="E139" s="8" t="s">
+      <c r="E139" s="57" t="s">
         <v>839</v>
       </c>
-      <c r="F139" s="5"/>
-      <c r="G139" s="5" t="s">
+      <c r="F139" s="56"/>
+      <c r="G139" s="56" t="s">
         <v>825</v>
       </c>
-      <c r="H139" s="50" t="s">
+      <c r="H139" s="58" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="17" customHeight="1">
-      <c r="A140" s="8">
-        <v>350</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C140" s="5" t="s">
+    <row r="140" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="B140" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140" s="56" t="s">
         <v>819</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D140" s="56" t="s">
         <v>513</v>
       </c>
-      <c r="E140" s="8" t="s">
+      <c r="E140" s="57" t="s">
         <v>839</v>
       </c>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5" t="s">
+      <c r="F140" s="56"/>
+      <c r="G140" s="56" t="s">
         <v>826</v>
       </c>
-      <c r="H140" s="50" t="s">
+      <c r="H140" s="58" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="17" customHeight="1">
-      <c r="A141" s="8">
-        <v>349</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C141" s="5" t="s">
+    <row r="141" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B141" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="C141" s="56" t="s">
         <v>819</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D141" s="56" t="s">
         <v>822</v>
       </c>
-      <c r="E141" s="8" t="s">
+      <c r="E141" s="57" t="s">
         <v>839</v>
       </c>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5" t="s">
+      <c r="F141" s="56"/>
+      <c r="G141" s="56" t="s">
         <v>823</v>
       </c>
-      <c r="H141" s="50" t="s">
+      <c r="H141" s="58" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="17" customHeight="1">
+    <row r="142" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
-        <f>(A135+1)</f>
-        <v>129</v>
+        <f t="shared" si="2"/>
+        <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>216</v>
@@ -7679,10 +7706,10 @@
         <v>631</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="17" customHeight="1">
+    <row r="143" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B143" s="14" t="s">
         <v>140</v>
@@ -7706,10 +7733,10 @@
         <v>631</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="17" customHeight="1">
+    <row r="144" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <f t="shared" si="2"/>
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B144" s="14" t="s">
         <v>134</v>
@@ -7730,10 +7757,10 @@
         <v>597</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="17" customHeight="1">
+    <row r="145" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <f t="shared" si="2"/>
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B145" s="14" t="s">
         <v>140</v>
@@ -7754,10 +7781,10 @@
         <v>124</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="17" customHeight="1">
+    <row r="146" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <f t="shared" si="2"/>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B146" s="14" t="s">
         <v>140</v>
@@ -7778,10 +7805,10 @@
         <v>404</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="17" customHeight="1">
+    <row r="147" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="B147" s="14" t="s">
         <v>72</v>
@@ -7802,10 +7829,10 @@
         <v>404</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="17" customHeight="1">
+    <row r="148" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B148" s="14" t="s">
         <v>782</v>
@@ -7826,10 +7853,10 @@
         <v>734</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="17" customHeight="1">
+    <row r="149" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B149" s="14" t="s">
         <v>140</v>
@@ -7850,10 +7877,10 @@
         <v>324</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="17" customHeight="1">
+    <row r="150" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <f t="shared" si="2"/>
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B150" s="14" t="s">
         <v>140</v>
@@ -7874,10 +7901,10 @@
         <v>423</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="17" customHeight="1">
+    <row r="151" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <f t="shared" si="2"/>
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B151" s="14" t="s">
         <v>140</v>
@@ -7898,10 +7925,10 @@
         <v>524</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="17" customHeight="1">
+    <row r="152" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B152" s="14" t="s">
         <v>134</v>
@@ -7922,10 +7949,10 @@
         <v>488</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="17" customHeight="1">
+    <row r="153" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>216</v>
@@ -7949,10 +7976,10 @@
         <v>555</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="17" customHeight="1">
+    <row r="154" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <f t="shared" si="2"/>
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B154" s="14" t="s">
         <v>140</v>
@@ -7976,10 +8003,10 @@
         <v>555</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="17" customHeight="1">
+    <row r="155" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <f t="shared" si="2"/>
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B155" s="14" t="s">
         <v>140</v>
@@ -8000,10 +8027,10 @@
         <v>555</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="17" customHeight="1">
+    <row r="156" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B156" s="15" t="s">
         <v>140</v>
@@ -8024,10 +8051,10 @@
         <v>555</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="17" customHeight="1">
+    <row r="157" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B157" s="14" t="s">
         <v>140</v>
@@ -8049,10 +8076,10 @@
         <v>555</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="17" customHeight="1">
+    <row r="158" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <f t="shared" si="2"/>
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B158" s="14" t="s">
         <v>140</v>
@@ -8073,10 +8100,10 @@
         <v>555</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="17" customHeight="1">
+    <row r="159" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <f t="shared" si="2"/>
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="B159" s="14" t="s">
         <v>140</v>
@@ -8097,10 +8124,10 @@
         <v>555</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="17" customHeight="1">
+    <row r="160" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <f t="shared" si="2"/>
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B160" s="14" t="s">
         <v>140</v>
@@ -8121,10 +8148,10 @@
         <v>555</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="17" customHeight="1">
+    <row r="161" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
         <f t="shared" si="2"/>
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>216</v>
@@ -8148,10 +8175,10 @@
         <v>397</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="17" customHeight="1">
+    <row r="162" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <f t="shared" si="2"/>
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B162" s="14" t="s">
         <v>140</v>
@@ -8175,10 +8202,10 @@
         <v>397</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="17" customHeight="1">
+    <row r="163" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B163" s="14" t="s">
         <v>139</v>
@@ -8202,10 +8229,10 @@
         <v>397</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="17" customHeight="1">
+    <row r="164" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <f t="shared" si="2"/>
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B164" s="14" t="s">
         <v>140</v>
@@ -8229,10 +8256,10 @@
         <v>397</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="17" customHeight="1">
+    <row r="165" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <f t="shared" si="2"/>
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="B165" s="15" t="s">
         <v>140</v>
@@ -8253,10 +8280,10 @@
         <v>397</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="17" customHeight="1">
+    <row r="166" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <f t="shared" si="2"/>
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B166" s="14" t="s">
         <v>140</v>
@@ -8277,10 +8304,10 @@
         <v>400</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="17" customHeight="1">
+    <row r="167" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="B167" s="14" t="s">
         <v>140</v>
@@ -8301,10 +8328,10 @@
         <v>456</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="17" customHeight="1">
+    <row r="168" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>216</v>
@@ -8328,10 +8355,10 @@
         <v>361</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="17" customHeight="1">
+    <row r="169" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B169" s="14" t="s">
         <v>140</v>
@@ -8355,10 +8382,10 @@
         <v>361</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="17" customHeight="1">
+    <row r="170" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B170" s="14" t="s">
         <v>140</v>
@@ -8382,10 +8409,10 @@
         <v>361</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="17" customHeight="1">
+    <row r="171" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <f t="shared" si="2"/>
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B171" s="14" t="s">
         <v>140</v>
@@ -8406,10 +8433,10 @@
         <v>361</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="17" customHeight="1">
+    <row r="172" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>216</v>
@@ -8433,10 +8460,10 @@
         <v>512</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="17" customHeight="1">
+    <row r="173" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B173" s="15" t="s">
         <v>140</v>
@@ -8460,10 +8487,10 @@
         <v>512</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="17" customHeight="1">
+    <row r="174" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <f t="shared" si="2"/>
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B174" s="14" t="s">
         <v>139</v>
@@ -8487,10 +8514,10 @@
         <v>512</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="17" customHeight="1">
+    <row r="175" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <f t="shared" si="2"/>
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B175" s="14" t="s">
         <v>140</v>
@@ -8511,10 +8538,10 @@
         <v>512</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="17" customHeight="1">
+    <row r="176" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
         <f t="shared" si="2"/>
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>216</v>
@@ -8538,10 +8565,10 @@
         <v>354</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="17" customHeight="1">
+    <row r="177" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <f t="shared" si="2"/>
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B177" s="14" t="s">
         <v>140</v>
@@ -8565,10 +8592,10 @@
         <v>354</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="17" customHeight="1">
+    <row r="178" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <f t="shared" si="2"/>
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B178" s="14" t="s">
         <v>140</v>
@@ -8589,10 +8616,10 @@
         <v>368</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="17" customHeight="1">
+    <row r="179" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <f t="shared" si="2"/>
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B179" s="14" t="s">
         <v>140</v>
@@ -8613,10 +8640,10 @@
         <v>380</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="17" customHeight="1">
+    <row r="180" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <f t="shared" si="2"/>
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B180" s="15" t="s">
         <v>134</v>
@@ -8637,10 +8664,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="17" customHeight="1">
+    <row r="181" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>216</v>
@@ -8664,10 +8691,10 @@
         <v>515</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="17" customHeight="1">
+    <row r="182" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B182" s="14" t="s">
         <v>140</v>
@@ -8691,10 +8718,10 @@
         <v>515</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="17" customHeight="1">
+    <row r="183" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <f t="shared" si="2"/>
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B183" s="14" t="s">
         <v>139</v>
@@ -8718,10 +8745,10 @@
         <v>426</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="17" customHeight="1">
+    <row r="184" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <f t="shared" si="2"/>
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B184" s="15" t="s">
         <v>140</v>
@@ -8742,10 +8769,10 @@
         <v>426</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="17" customHeight="1">
+    <row r="185" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B185" s="14" t="s">
         <v>140</v>
@@ -8766,10 +8793,10 @@
         <v>461</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="17" customHeight="1">
+    <row r="186" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="2">
         <f t="shared" si="2"/>
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>216</v>
@@ -8793,10 +8820,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="17" customHeight="1">
+    <row r="187" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B187" s="14" t="s">
         <v>140</v>
@@ -8820,10 +8847,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="17" customHeight="1">
+    <row r="188" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B188" s="15" t="s">
         <v>140</v>
@@ -8844,10 +8871,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="17" customHeight="1">
+    <row r="189" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="2">
         <f t="shared" si="2"/>
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>216</v>
@@ -8871,10 +8898,10 @@
         <v>357</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="17" customHeight="1">
+    <row r="190" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <f t="shared" si="2"/>
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B190" s="14" t="s">
         <v>140</v>
@@ -8898,10 +8925,10 @@
         <v>357</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="17" customHeight="1">
+    <row r="191" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B191" s="14" t="s">
         <v>140</v>
@@ -8922,10 +8949,10 @@
         <v>357</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="17" customHeight="1">
+    <row r="192" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="B192" s="14" t="s">
         <v>134</v>
@@ -8946,10 +8973,10 @@
         <v>357</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="17" customHeight="1">
+    <row r="193" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>216</v>
@@ -8973,10 +9000,10 @@
         <v>515</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="17" customHeight="1">
+    <row r="194" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B194" s="14" t="s">
         <v>140</v>
@@ -9000,10 +9027,10 @@
         <v>515</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="17" customHeight="1">
+    <row r="195" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <f t="shared" si="2"/>
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B195" s="14" t="s">
         <v>140</v>
@@ -9024,10 +9051,10 @@
         <v>515</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="17" customHeight="1">
+    <row r="196" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <f t="shared" si="2"/>
-        <v>183</v>
+        <f t="shared" ref="A196:A259" si="3">(A195+1)</f>
+        <v>195</v>
       </c>
       <c r="B196" s="14" t="s">
         <v>140</v>
@@ -9048,10 +9075,10 @@
         <v>515</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="17" customHeight="1">
+    <row r="197" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <f t="shared" si="2"/>
-        <v>184</v>
+        <f t="shared" si="3"/>
+        <v>196</v>
       </c>
       <c r="B197" s="14" t="s">
         <v>140</v>
@@ -9072,10 +9099,10 @@
         <v>515</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="17" customHeight="1">
+    <row r="198" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="2">
-        <f>(A197+1)</f>
-        <v>185</v>
+        <f t="shared" si="3"/>
+        <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>216</v>
@@ -9099,10 +9126,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="17" customHeight="1">
+    <row r="199" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <f t="shared" si="2"/>
-        <v>186</v>
+        <f t="shared" si="3"/>
+        <v>198</v>
       </c>
       <c r="B199" s="14" t="s">
         <v>140</v>
@@ -9126,10 +9153,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="17" customHeight="1">
+    <row r="200" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <f t="shared" si="2"/>
-        <v>187</v>
+        <f t="shared" si="3"/>
+        <v>199</v>
       </c>
       <c r="B200" s="14" t="s">
         <v>140</v>
@@ -9153,10 +9180,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="17" customHeight="1">
+    <row r="201" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <f t="shared" si="2"/>
-        <v>188</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="B201" s="15" t="s">
         <v>140</v>
@@ -9177,10 +9204,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="17" customHeight="1">
+    <row r="202" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <f t="shared" si="2"/>
-        <v>189</v>
+        <f t="shared" si="3"/>
+        <v>201</v>
       </c>
       <c r="B202" s="15" t="s">
         <v>140</v>
@@ -9204,10 +9231,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="17" customHeight="1">
+    <row r="203" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <f t="shared" si="2"/>
-        <v>190</v>
+        <f t="shared" si="3"/>
+        <v>202</v>
       </c>
       <c r="B203" s="14" t="s">
         <v>140</v>
@@ -9231,10 +9258,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="17" customHeight="1">
+    <row r="204" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <f t="shared" ref="A204:A272" si="3">(A203+1)</f>
-        <v>191</v>
+        <f t="shared" si="3"/>
+        <v>203</v>
       </c>
       <c r="B204" s="14" t="s">
         <v>134</v>
@@ -9255,10 +9282,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="17" customHeight="1">
+    <row r="205" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="2">
         <f t="shared" si="3"/>
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>216</v>
@@ -9282,10 +9309,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="17" customHeight="1">
+    <row r="206" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <f t="shared" si="3"/>
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B206" s="14" t="s">
         <v>140</v>
@@ -9309,10 +9336,10 @@
         <v>450</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="17" customHeight="1">
+    <row r="207" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <f t="shared" si="3"/>
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B207" s="15" t="s">
         <v>140</v>
@@ -9336,10 +9363,10 @@
         <v>450</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="17" customHeight="1">
+    <row r="208" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <f t="shared" si="3"/>
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B208" s="14" t="s">
         <v>140</v>
@@ -9363,10 +9390,10 @@
         <v>450</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="17" customHeight="1">
+    <row r="209" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <f t="shared" si="3"/>
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B209" s="14" t="s">
         <v>140</v>
@@ -9387,10 +9414,10 @@
         <v>450</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="17" customHeight="1">
+    <row r="210" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="2">
         <f t="shared" si="3"/>
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>216</v>
@@ -9412,10 +9439,10 @@
       </c>
       <c r="H210" s="32"/>
     </row>
-    <row r="211" spans="1:8" ht="17" customHeight="1">
+    <row r="211" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <f t="shared" si="3"/>
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B211" s="15" t="s">
         <v>140</v>
@@ -9437,10 +9464,10 @@
       </c>
       <c r="H211" s="30"/>
     </row>
-    <row r="212" spans="1:8" ht="17" customHeight="1">
+    <row r="212" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <f t="shared" si="3"/>
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B212" s="15" t="s">
         <v>140</v>
@@ -9461,10 +9488,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="17" customHeight="1">
+    <row r="213" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B213" s="15" t="s">
         <v>140</v>
@@ -9488,10 +9515,10 @@
         <v>599</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="17" customHeight="1">
+    <row r="214" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <f t="shared" si="3"/>
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B214" s="15" t="s">
         <v>134</v>
@@ -9512,10 +9539,10 @@
         <v>595</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="215" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="2">
         <f t="shared" si="3"/>
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B215" s="21" t="s">
         <v>216</v>
@@ -9539,10 +9566,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="216" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <f t="shared" si="3"/>
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="B216" s="23" t="s">
         <v>140</v>
@@ -9566,10 +9593,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="217" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <f t="shared" si="3"/>
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B217" s="23" t="s">
         <v>140</v>
@@ -9593,10 +9620,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="218" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <f t="shared" si="3"/>
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B218" s="23" t="s">
         <v>134</v>
@@ -9620,10 +9647,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="219" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="2">
         <f t="shared" si="3"/>
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B219" s="21" t="s">
         <v>161</v>
@@ -9647,10 +9674,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="220" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="220" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <f t="shared" si="3"/>
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B220" s="19" t="s">
         <v>140</v>
@@ -9674,10 +9701,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="221" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="221" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <f t="shared" si="3"/>
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B221" s="19" t="s">
         <v>140</v>
@@ -9699,10 +9726,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="222" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="222" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <f t="shared" si="3"/>
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B222" s="23" t="s">
         <v>140</v>
@@ -9724,10 +9751,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="223" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="223" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B223" s="19" t="s">
         <v>140</v>
@@ -9749,10 +9776,10 @@
         <v>204</v>
       </c>
     </row>
-    <row r="224" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="224" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <f t="shared" si="3"/>
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B224" s="19" t="s">
         <v>140</v>
@@ -9774,10 +9801,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="225" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="225" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="2">
         <f t="shared" si="3"/>
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B225" s="21" t="s">
         <v>164</v>
@@ -9801,10 +9828,10 @@
         <v>702</v>
       </c>
     </row>
-    <row r="226" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="226" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <f t="shared" si="3"/>
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B226" s="19" t="s">
         <v>140</v>
@@ -9828,10 +9855,10 @@
         <v>702</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="227" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <f t="shared" si="3"/>
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B227" s="23" t="s">
         <v>140</v>
@@ -9853,10 +9880,10 @@
         <v>702</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="228" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <f t="shared" si="3"/>
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B228" s="19" t="s">
         <v>140</v>
@@ -9880,10 +9907,10 @@
         <v>702</v>
       </c>
     </row>
-    <row r="229" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="229" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <f t="shared" si="3"/>
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B229" s="19" t="s">
         <v>140</v>
@@ -9905,10 +9932,10 @@
         <v>702</v>
       </c>
     </row>
-    <row r="230" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="230" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <f t="shared" si="3"/>
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B230" s="19" t="s">
         <v>134</v>
@@ -9930,9 +9957,10 @@
         <v>702</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
-      <c r="A231" s="8">
-        <v>185</v>
+    <row r="231" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="2">
+        <f t="shared" si="3"/>
+        <v>230</v>
       </c>
       <c r="B231" s="46" t="s">
         <v>139</v>
@@ -9954,9 +9982,10 @@
       </c>
       <c r="H231" s="48"/>
     </row>
-    <row r="232" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
-      <c r="A232" s="8">
-        <v>186</v>
+    <row r="232" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="2">
+        <f t="shared" si="3"/>
+        <v>231</v>
       </c>
       <c r="B232" s="19" t="s">
         <v>140</v>
@@ -9978,9 +10007,10 @@
       </c>
       <c r="H232" s="49"/>
     </row>
-    <row r="233" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
-      <c r="A233" s="8">
-        <v>187</v>
+    <row r="233" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="2">
+        <f t="shared" si="3"/>
+        <v>232</v>
       </c>
       <c r="B233" s="19" t="s">
         <v>140</v>
@@ -10002,9 +10032,10 @@
       </c>
       <c r="H233" s="49"/>
     </row>
-    <row r="234" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
-      <c r="A234" s="8">
-        <v>188</v>
+    <row r="234" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="2">
+        <f t="shared" si="3"/>
+        <v>233</v>
       </c>
       <c r="B234" s="19" t="s">
         <v>140</v>
@@ -10026,9 +10057,10 @@
       </c>
       <c r="H234" s="49"/>
     </row>
-    <row r="235" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
-      <c r="A235" s="8">
-        <v>189</v>
+    <row r="235" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="2">
+        <f t="shared" si="3"/>
+        <v>234</v>
       </c>
       <c r="B235" s="19" t="s">
         <v>135</v>
@@ -10050,10 +10082,10 @@
       </c>
       <c r="H235" s="49"/>
     </row>
-    <row r="236" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="236" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="2">
-        <f>(A230+1)</f>
-        <v>218</v>
+        <f t="shared" si="3"/>
+        <v>235</v>
       </c>
       <c r="B236" s="21" t="s">
         <v>19</v>
@@ -10077,10 +10109,10 @@
         <v>545</v>
       </c>
     </row>
-    <row r="237" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="237" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <f t="shared" si="3"/>
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="B237" s="19" t="s">
         <v>140</v>
@@ -10104,10 +10136,10 @@
         <v>231</v>
       </c>
     </row>
-    <row r="238" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="238" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <f t="shared" si="3"/>
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="B238" s="19" t="s">
         <v>139</v>
@@ -10131,10 +10163,10 @@
         <v>231</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="239" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <f t="shared" si="3"/>
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="B239" s="19" t="s">
         <v>140</v>
@@ -10156,10 +10188,10 @@
         <v>231</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="240" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <f t="shared" si="3"/>
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="B240" s="19" t="s">
         <v>140</v>
@@ -10181,10 +10213,10 @@
         <v>617</v>
       </c>
     </row>
-    <row r="241" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="241" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <f t="shared" si="3"/>
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="B241" s="19" t="s">
         <v>140</v>
@@ -10206,10 +10238,10 @@
         <v>624</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="242" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <f t="shared" si="3"/>
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="B242" s="23" t="s">
         <v>140</v>
@@ -10231,10 +10263,10 @@
         <v>545</v>
       </c>
     </row>
-    <row r="243" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="243" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <f t="shared" si="3"/>
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="B243" s="19" t="s">
         <v>134</v>
@@ -10256,10 +10288,10 @@
         <v>475</v>
       </c>
     </row>
-    <row r="244" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="244" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <f t="shared" si="3"/>
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B244" s="19" t="s">
         <v>140</v>
@@ -10281,10 +10313,10 @@
         <v>475</v>
       </c>
     </row>
-    <row r="245" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="245" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <f t="shared" si="3"/>
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="B245" s="19" t="s">
         <v>140</v>
@@ -10306,10 +10338,10 @@
         <v>655</v>
       </c>
     </row>
-    <row r="246" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="246" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <f t="shared" si="3"/>
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="B246" s="19" t="s">
         <v>140</v>
@@ -10333,10 +10365,10 @@
         <v>231</v>
       </c>
     </row>
-    <row r="247" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="247" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <f t="shared" si="3"/>
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="B247" s="19" t="s">
         <v>170</v>
@@ -10360,10 +10392,10 @@
         <v>231</v>
       </c>
     </row>
-    <row r="248" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="248" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <f t="shared" si="3"/>
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="B248" s="23" t="s">
         <v>140</v>
@@ -10385,10 +10417,10 @@
         <v>687</v>
       </c>
     </row>
-    <row r="249" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="249" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <f t="shared" si="3"/>
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="B249" s="19" t="s">
         <v>140</v>
@@ -10412,10 +10444,10 @@
         <v>442</v>
       </c>
     </row>
-    <row r="250" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="250" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <f t="shared" si="3"/>
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="B250" s="19" t="s">
         <v>170</v>
@@ -10439,10 +10471,10 @@
         <v>442</v>
       </c>
     </row>
-    <row r="251" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="251" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <f t="shared" si="3"/>
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="B251" s="19" t="s">
         <v>170</v>
@@ -10466,10 +10498,10 @@
         <v>442</v>
       </c>
     </row>
-    <row r="252" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="252" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <f t="shared" si="3"/>
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="B252" s="19" t="s">
         <v>170</v>
@@ -10493,10 +10525,10 @@
         <v>442</v>
       </c>
     </row>
-    <row r="253" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="253" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <f t="shared" si="3"/>
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="B253" s="19" t="s">
         <v>140</v>
@@ -10518,10 +10550,10 @@
         <v>476</v>
       </c>
     </row>
-    <row r="254" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="254" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="2">
         <f t="shared" si="3"/>
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="B254" s="21" t="s">
         <v>66</v>
@@ -10545,10 +10577,10 @@
         <v>625</v>
       </c>
     </row>
-    <row r="255" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="255" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <f t="shared" si="3"/>
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="B255" s="19" t="s">
         <v>140</v>
@@ -10572,10 +10604,10 @@
         <v>625</v>
       </c>
     </row>
-    <row r="256" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="256" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <f t="shared" si="3"/>
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="B256" s="19" t="s">
         <v>139</v>
@@ -10599,10 +10631,10 @@
         <v>625</v>
       </c>
     </row>
-    <row r="257" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="257" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <f t="shared" si="3"/>
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B257" s="19" t="s">
         <v>140</v>
@@ -10624,10 +10656,10 @@
         <v>625</v>
       </c>
     </row>
-    <row r="258" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="258" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="B258" s="19" t="s">
         <v>140</v>
@@ -10649,10 +10681,10 @@
         <v>625</v>
       </c>
     </row>
-    <row r="259" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="259" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <f t="shared" si="3"/>
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="B259" s="19" t="s">
         <v>140</v>
@@ -10674,10 +10706,10 @@
         <v>625</v>
       </c>
     </row>
-    <row r="260" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="260" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
-        <f t="shared" si="3"/>
-        <v>242</v>
+        <f t="shared" ref="A260:A323" si="4">(A259+1)</f>
+        <v>259</v>
       </c>
       <c r="B260" s="19" t="s">
         <v>139</v>
@@ -10699,10 +10731,10 @@
         <v>625</v>
       </c>
     </row>
-    <row r="261" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="261" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="2">
-        <f t="shared" si="3"/>
-        <v>243</v>
+        <f t="shared" si="4"/>
+        <v>260</v>
       </c>
       <c r="B261" s="21" t="s">
         <v>417</v>
@@ -10726,10 +10758,10 @@
         <v>209</v>
       </c>
     </row>
-    <row r="262" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="262" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
-        <f t="shared" si="3"/>
-        <v>244</v>
+        <f t="shared" si="4"/>
+        <v>261</v>
       </c>
       <c r="B262" s="19" t="s">
         <v>140</v>
@@ -10753,10 +10785,10 @@
         <v>209</v>
       </c>
     </row>
-    <row r="263" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="263" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
-        <f t="shared" si="3"/>
-        <v>245</v>
+        <f t="shared" si="4"/>
+        <v>262</v>
       </c>
       <c r="B263" s="19" t="s">
         <v>139</v>
@@ -10780,10 +10812,10 @@
         <v>385</v>
       </c>
     </row>
-    <row r="264" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="264" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
-        <f t="shared" si="3"/>
-        <v>246</v>
+        <f t="shared" si="4"/>
+        <v>263</v>
       </c>
       <c r="B264" s="19" t="s">
         <v>140</v>
@@ -10805,10 +10837,10 @@
         <v>385</v>
       </c>
     </row>
-    <row r="265" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="265" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
-        <f t="shared" si="3"/>
-        <v>247</v>
+        <f t="shared" si="4"/>
+        <v>264</v>
       </c>
       <c r="B265" s="19" t="s">
         <v>134</v>
@@ -10830,10 +10862,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="266" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="266" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
-        <f t="shared" si="3"/>
-        <v>248</v>
+        <f t="shared" si="4"/>
+        <v>265</v>
       </c>
       <c r="B266" s="23" t="s">
         <v>140</v>
@@ -10857,10 +10889,10 @@
         <v>565</v>
       </c>
     </row>
-    <row r="267" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="267" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <f t="shared" si="3"/>
-        <v>249</v>
+        <f t="shared" si="4"/>
+        <v>266</v>
       </c>
       <c r="B267" s="19" t="s">
         <v>140</v>
@@ -10882,10 +10914,10 @@
         <v>382</v>
       </c>
     </row>
-    <row r="268" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="268" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <f t="shared" si="4"/>
+        <v>267</v>
       </c>
       <c r="B268" s="19" t="s">
         <v>140</v>
@@ -10907,10 +10939,10 @@
         <v>528</v>
       </c>
     </row>
-    <row r="269" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="269" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
-        <f t="shared" si="3"/>
-        <v>251</v>
+        <f t="shared" si="4"/>
+        <v>268</v>
       </c>
       <c r="B269" s="19" t="s">
         <v>139</v>
@@ -10932,10 +10964,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="270" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="270" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
-        <f t="shared" si="3"/>
-        <v>252</v>
+        <f t="shared" si="4"/>
+        <v>269</v>
       </c>
       <c r="B270" s="19" t="s">
         <v>139</v>
@@ -10957,10 +10989,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="271" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="271" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
-        <f t="shared" si="3"/>
-        <v>253</v>
+        <f t="shared" si="4"/>
+        <v>270</v>
       </c>
       <c r="B271" s="19" t="s">
         <v>134</v>
@@ -10982,10 +11014,10 @@
         <v>505</v>
       </c>
     </row>
-    <row r="272" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="272" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
-        <f t="shared" si="3"/>
-        <v>254</v>
+        <f t="shared" si="4"/>
+        <v>271</v>
       </c>
       <c r="B272" s="19" t="s">
         <v>139</v>
@@ -11007,10 +11039,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="273" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="273" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
-        <f t="shared" ref="A273:A336" si="4">(A272+1)</f>
-        <v>255</v>
+        <f t="shared" si="4"/>
+        <v>272</v>
       </c>
       <c r="B273" s="23" t="s">
         <v>140</v>
@@ -11032,10 +11064,10 @@
         <v>273</v>
       </c>
     </row>
-    <row r="274" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="274" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <f t="shared" si="4"/>
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="B274" s="19" t="s">
         <v>140</v>
@@ -11057,10 +11089,10 @@
         <v>501</v>
       </c>
     </row>
-    <row r="275" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="275" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <f t="shared" si="4"/>
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="B275" s="19" t="s">
         <v>139</v>
@@ -11082,10 +11114,10 @@
         <v>569</v>
       </c>
     </row>
-    <row r="276" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="276" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <f t="shared" si="4"/>
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B276" s="19" t="s">
         <v>140</v>
@@ -11107,10 +11139,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="277" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="277" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <f t="shared" si="4"/>
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="B277" s="19" t="s">
         <v>140</v>
@@ -11132,10 +11164,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="278" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="278" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="2">
         <f t="shared" si="4"/>
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="B278" s="21" t="s">
         <v>314</v>
@@ -11159,10 +11191,10 @@
         <v>565</v>
       </c>
     </row>
-    <row r="279" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="279" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <f t="shared" si="4"/>
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="B279" s="19" t="s">
         <v>140</v>
@@ -11186,10 +11218,10 @@
         <v>565</v>
       </c>
     </row>
-    <row r="280" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="280" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <f t="shared" si="4"/>
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="B280" s="19" t="s">
         <v>140</v>
@@ -11211,10 +11243,10 @@
         <v>384</v>
       </c>
     </row>
-    <row r="281" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="281" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <f t="shared" si="4"/>
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="B281" s="19" t="s">
         <v>134</v>
@@ -11236,10 +11268,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="282" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="282" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <f t="shared" si="4"/>
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="B282" s="19" t="s">
         <v>134</v>
@@ -11261,10 +11293,10 @@
         <v>654</v>
       </c>
     </row>
-    <row r="283" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="283" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <f t="shared" si="4"/>
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="B283" s="19" t="s">
         <v>134</v>
@@ -11286,10 +11318,10 @@
         <v>560</v>
       </c>
     </row>
-    <row r="284" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="284" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <f t="shared" si="4"/>
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="B284" s="19" t="s">
         <v>134</v>
@@ -11311,10 +11343,10 @@
         <v>278</v>
       </c>
     </row>
-    <row r="285" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="285" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <f t="shared" si="4"/>
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="B285" s="19" t="s">
         <v>140</v>
@@ -11338,10 +11370,10 @@
         <v>277</v>
       </c>
     </row>
-    <row r="286" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="286" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <f t="shared" si="4"/>
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="B286" s="19" t="s">
         <v>39</v>
@@ -11365,10 +11397,10 @@
         <v>277</v>
       </c>
     </row>
-    <row r="287" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="287" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <f t="shared" si="4"/>
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="B287" s="19" t="s">
         <v>140</v>
@@ -11390,10 +11422,10 @@
         <v>654</v>
       </c>
     </row>
-    <row r="288" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="288" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <f t="shared" si="4"/>
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="B288" s="19" t="s">
         <v>140</v>
@@ -11415,10 +11447,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="289" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="289" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <f t="shared" si="4"/>
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="B289" s="19" t="s">
         <v>140</v>
@@ -11440,10 +11472,10 @@
         <v>531</v>
       </c>
     </row>
-    <row r="290" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="290" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <f t="shared" si="4"/>
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B290" s="23" t="s">
         <v>140</v>
@@ -11465,10 +11497,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="291" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="291" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="2">
         <f t="shared" si="4"/>
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B291" s="21" t="s">
         <v>176</v>
@@ -11492,10 +11524,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="292" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="292" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <f t="shared" si="4"/>
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="B292" s="19" t="s">
         <v>140</v>
@@ -11519,10 +11551,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="293" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="293" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <f t="shared" si="4"/>
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="B293" s="19" t="s">
         <v>139</v>
@@ -11546,10 +11578,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="294" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="294" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <f t="shared" si="4"/>
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="B294" s="23" t="s">
         <v>139</v>
@@ -11573,10 +11605,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="295" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="295" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <f t="shared" si="4"/>
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="B295" s="19" t="s">
         <v>140</v>
@@ -11598,10 +11630,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="296" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="296" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="2">
         <f t="shared" si="4"/>
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="B296" s="21" t="s">
         <v>34</v>
@@ -11625,10 +11657,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="297" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="297" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <f t="shared" si="4"/>
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="B297" s="19" t="s">
         <v>140</v>
@@ -11652,10 +11684,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="298" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="298" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <f t="shared" si="4"/>
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="B298" s="19" t="s">
         <v>139</v>
@@ -11679,10 +11711,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="17" customHeight="1">
+    <row r="299" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <f t="shared" si="4"/>
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="B299" s="14" t="s">
         <v>140</v>
@@ -11703,10 +11735,10 @@
         <v>653</v>
       </c>
     </row>
-    <row r="300" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="300" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <f t="shared" si="4"/>
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="B300" s="19" t="s">
         <v>134</v>
@@ -11728,10 +11760,10 @@
         <v>406</v>
       </c>
     </row>
-    <row r="301" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="301" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <f t="shared" si="4"/>
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="B301" s="19" t="s">
         <v>140</v>
@@ -11753,10 +11785,10 @@
         <v>483</v>
       </c>
     </row>
-    <row r="302" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="302" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <f t="shared" si="4"/>
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="B302" s="19" t="s">
         <v>170</v>
@@ -11778,10 +11810,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="303" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="303" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <f t="shared" si="4"/>
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="B303" s="23" t="s">
         <v>140</v>
@@ -11803,10 +11835,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="304" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="304" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <f t="shared" si="4"/>
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="B304" s="19" t="s">
         <v>170</v>
@@ -11828,10 +11860,10 @@
         <v>156</v>
       </c>
     </row>
-    <row r="305" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="305" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <f t="shared" si="4"/>
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="B305" s="19" t="s">
         <v>708</v>
@@ -11855,10 +11887,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="306" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="306" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <f t="shared" si="4"/>
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="B306" s="19" t="s">
         <v>708</v>
@@ -11882,10 +11914,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="307" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="307" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <f t="shared" si="4"/>
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="B307" s="19" t="s">
         <v>140</v>
@@ -11907,10 +11939,10 @@
         <v>600</v>
       </c>
     </row>
-    <row r="308" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="308" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <f t="shared" si="4"/>
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="B308" s="19" t="s">
         <v>170</v>
@@ -11932,10 +11964,10 @@
         <v>577</v>
       </c>
     </row>
-    <row r="309" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="309" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <f t="shared" si="4"/>
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="B309" s="23" t="s">
         <v>170</v>
@@ -11957,10 +11989,10 @@
         <v>255</v>
       </c>
     </row>
-    <row r="310" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="310" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <f t="shared" si="4"/>
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="B310" s="19" t="s">
         <v>170</v>
@@ -11982,10 +12014,10 @@
         <v>256</v>
       </c>
     </row>
-    <row r="311" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="311" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <f t="shared" si="4"/>
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="B311" s="19" t="s">
         <v>140</v>
@@ -12007,10 +12039,10 @@
         <v>257</v>
       </c>
     </row>
-    <row r="312" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="312" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <f t="shared" si="4"/>
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B312" s="19" t="s">
         <v>140</v>
@@ -12032,10 +12064,10 @@
         <v>604</v>
       </c>
     </row>
-    <row r="313" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="313" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <f t="shared" si="4"/>
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="B313" s="19" t="s">
         <v>140</v>
@@ -12057,10 +12089,10 @@
         <v>575</v>
       </c>
     </row>
-    <row r="314" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="314" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <f t="shared" si="4"/>
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="B314" s="19" t="s">
         <v>134</v>
@@ -12082,10 +12114,10 @@
         <v>497</v>
       </c>
     </row>
-    <row r="315" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="315" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <f t="shared" si="4"/>
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="B315" s="19" t="s">
         <v>134</v>
@@ -12107,31 +12139,32 @@
         <v>258</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="17" customHeight="1">
+    <row r="316" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <f t="shared" si="4"/>
-        <v>298</v>
-      </c>
-      <c r="B316" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="B316" s="55" t="s">
         <v>696</v>
       </c>
-      <c r="C316" s="1" t="s">
+      <c r="C316" s="59" t="s">
         <v>697</v>
       </c>
-      <c r="D316" s="1" t="s">
+      <c r="D316" s="59" t="s">
         <v>698</v>
       </c>
-      <c r="E316" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="G316" s="1" t="s">
+      <c r="E316" s="60" t="s">
+        <v>679</v>
+      </c>
+      <c r="F316" s="59"/>
+      <c r="G316" s="59" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="317" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="317" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <f t="shared" si="4"/>
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="B317" s="19" t="s">
         <v>10</v>
@@ -12151,10 +12184,10 @@
       </c>
       <c r="H317" s="30"/>
     </row>
-    <row r="318" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="318" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="2">
         <f t="shared" si="4"/>
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B318" s="21" t="s">
         <v>264</v>
@@ -12178,10 +12211,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="319" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="319" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <f t="shared" si="4"/>
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="B319" s="19" t="s">
         <v>140</v>
@@ -12205,10 +12238,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="320" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="320" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <f t="shared" si="4"/>
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="B320" s="23" t="s">
         <v>139</v>
@@ -12232,10 +12265,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="321" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="321" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <f t="shared" si="4"/>
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="B321" s="23" t="s">
         <v>139</v>
@@ -12259,10 +12292,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="322" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="322" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <f t="shared" si="4"/>
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B322" s="23" t="s">
         <v>140</v>
@@ -12284,10 +12317,10 @@
         <v>145</v>
       </c>
     </row>
-    <row r="323" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="323" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <f t="shared" si="4"/>
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="B323" s="23" t="s">
         <v>140</v>
@@ -12309,10 +12342,10 @@
         <v>787</v>
       </c>
     </row>
-    <row r="324" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="324" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
-        <f t="shared" si="4"/>
-        <v>306</v>
+        <f t="shared" ref="A324:A363" si="5">(A323+1)</f>
+        <v>323</v>
       </c>
       <c r="B324" s="23" t="s">
         <v>140</v>
@@ -12334,10 +12367,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="325" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="325" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
-        <f t="shared" si="4"/>
-        <v>307</v>
+        <f t="shared" si="5"/>
+        <v>324</v>
       </c>
       <c r="B325" s="23" t="s">
         <v>140</v>
@@ -12361,10 +12394,10 @@
         <v>147</v>
       </c>
     </row>
-    <row r="326" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="326" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
-        <f t="shared" si="4"/>
-        <v>308</v>
+        <f t="shared" si="5"/>
+        <v>325</v>
       </c>
       <c r="B326" s="23" t="s">
         <v>134</v>
@@ -12386,10 +12419,10 @@
         <v>144</v>
       </c>
     </row>
-    <row r="327" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="327" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
-        <f t="shared" si="4"/>
-        <v>309</v>
+        <f t="shared" si="5"/>
+        <v>326</v>
       </c>
       <c r="B327" s="23" t="s">
         <v>140</v>
@@ -12411,10 +12444,10 @@
         <v>788</v>
       </c>
     </row>
-    <row r="328" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="328" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
-        <f t="shared" si="4"/>
-        <v>310</v>
+        <f t="shared" si="5"/>
+        <v>327</v>
       </c>
       <c r="B328" s="23" t="s">
         <v>140</v>
@@ -12436,10 +12469,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="329" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="329" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
-        <f t="shared" si="4"/>
-        <v>311</v>
+        <f t="shared" si="5"/>
+        <v>328</v>
       </c>
       <c r="B329" s="23" t="s">
         <v>140</v>
@@ -12463,10 +12496,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="330" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="330" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
-        <f t="shared" si="4"/>
-        <v>312</v>
+        <f t="shared" si="5"/>
+        <v>329</v>
       </c>
       <c r="B330" s="23" t="s">
         <v>170</v>
@@ -12490,10 +12523,10 @@
         <v>146</v>
       </c>
     </row>
-    <row r="331" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="331" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
-        <f t="shared" si="4"/>
-        <v>313</v>
+        <f t="shared" si="5"/>
+        <v>330</v>
       </c>
       <c r="B331" s="19" t="s">
         <v>140</v>
@@ -12515,10 +12548,10 @@
         <v>57</v>
       </c>
     </row>
-    <row r="332" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="332" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
-        <f t="shared" si="4"/>
-        <v>314</v>
+        <f t="shared" si="5"/>
+        <v>331</v>
       </c>
       <c r="B332" s="19" t="s">
         <v>140</v>
@@ -12542,10 +12575,10 @@
         <v>148</v>
       </c>
     </row>
-    <row r="333" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="333" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
-        <f t="shared" si="4"/>
-        <v>315</v>
+        <f t="shared" si="5"/>
+        <v>332</v>
       </c>
       <c r="B333" s="19" t="s">
         <v>170</v>
@@ -12567,10 +12600,10 @@
         <v>148</v>
       </c>
     </row>
-    <row r="334" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="334" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
-        <f t="shared" si="4"/>
-        <v>316</v>
+        <f t="shared" si="5"/>
+        <v>333</v>
       </c>
       <c r="B334" s="19" t="s">
         <v>170</v>
@@ -12594,10 +12627,10 @@
         <v>502</v>
       </c>
     </row>
-    <row r="335" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="335" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
-        <f t="shared" si="4"/>
-        <v>317</v>
+        <f t="shared" si="5"/>
+        <v>334</v>
       </c>
       <c r="B335" s="19" t="s">
         <v>170</v>
@@ -12621,10 +12654,10 @@
         <v>478</v>
       </c>
     </row>
-    <row r="336" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="336" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
-        <f t="shared" si="4"/>
-        <v>318</v>
+        <f t="shared" si="5"/>
+        <v>335</v>
       </c>
       <c r="B336" s="19" t="s">
         <v>134</v>
@@ -12646,10 +12679,10 @@
         <v>479</v>
       </c>
     </row>
-    <row r="337" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="337" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="2">
-        <f t="shared" ref="A337:A363" si="5">(A336+1)</f>
-        <v>319</v>
+        <f t="shared" si="5"/>
+        <v>336</v>
       </c>
       <c r="B337" s="21" t="s">
         <v>128</v>
@@ -12673,10 +12706,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="338" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="338" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <f t="shared" si="5"/>
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="B338" s="19" t="s">
         <v>140</v>
@@ -12700,10 +12733,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="339" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="339" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <f t="shared" si="5"/>
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="B339" s="19" t="s">
         <v>139</v>
@@ -12727,10 +12760,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="340" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="340" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <f t="shared" si="5"/>
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="B340" s="19" t="s">
         <v>139</v>
@@ -12754,10 +12787,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="341" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="341" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <f t="shared" si="5"/>
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="B341" s="19" t="s">
         <v>140</v>
@@ -12779,10 +12812,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="342" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="342" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <f t="shared" si="5"/>
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="B342" s="19" t="s">
         <v>140</v>
@@ -12804,10 +12837,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="343" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="343" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <f t="shared" si="5"/>
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="B343" s="19" t="s">
         <v>140</v>
@@ -12829,10 +12862,10 @@
         <v>722</v>
       </c>
     </row>
-    <row r="344" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="344" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <f t="shared" si="5"/>
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="B344" s="19" t="s">
         <v>139</v>
@@ -12854,10 +12887,10 @@
         <v>635</v>
       </c>
     </row>
-    <row r="345" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="345" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="2">
         <f t="shared" si="5"/>
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="B345" s="21" t="s">
         <v>417</v>
@@ -12881,10 +12914,10 @@
         <v>628</v>
       </c>
     </row>
-    <row r="346" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="346" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <f t="shared" si="5"/>
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="B346" s="19" t="s">
         <v>28</v>
@@ -12908,10 +12941,10 @@
         <v>628</v>
       </c>
     </row>
-    <row r="347" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="347" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <f t="shared" si="5"/>
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="B347" s="19" t="s">
         <v>30</v>
@@ -12933,10 +12966,10 @@
         <v>629</v>
       </c>
     </row>
-    <row r="348" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="348" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <f t="shared" si="5"/>
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="B348" s="19" t="s">
         <v>30</v>
@@ -12958,10 +12991,10 @@
         <v>627</v>
       </c>
     </row>
-    <row r="349" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="349" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="2">
         <f t="shared" si="5"/>
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="B349" s="21" t="s">
         <v>85</v>
@@ -12985,10 +13018,10 @@
         <v>626</v>
       </c>
     </row>
-    <row r="350" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="350" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <f t="shared" si="5"/>
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="B350" s="23" t="s">
         <v>140</v>
@@ -13012,10 +13045,10 @@
         <v>626</v>
       </c>
     </row>
-    <row r="351" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="351" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <f t="shared" si="5"/>
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="B351" s="19" t="s">
         <v>139</v>
@@ -13039,10 +13072,10 @@
         <v>702</v>
       </c>
     </row>
-    <row r="352" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="352" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <f t="shared" si="5"/>
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="B352" s="19" t="s">
         <v>140</v>
@@ -13064,10 +13097,10 @@
         <v>702</v>
       </c>
     </row>
-    <row r="353" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="353" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <f t="shared" si="5"/>
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="B353" s="19" t="s">
         <v>140</v>
@@ -13089,10 +13122,10 @@
         <v>630</v>
       </c>
     </row>
-    <row r="354" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="354" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <f t="shared" si="5"/>
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="B354" s="19" t="s">
         <v>140</v>
@@ -13114,10 +13147,10 @@
         <v>626</v>
       </c>
     </row>
-    <row r="355" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="355" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <f t="shared" si="5"/>
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="B355" s="19" t="s">
         <v>134</v>
@@ -13139,10 +13172,10 @@
         <v>719</v>
       </c>
     </row>
-    <row r="356" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="356" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <f t="shared" si="5"/>
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="B356" s="19" t="s">
         <v>139</v>
@@ -13164,10 +13197,10 @@
         <v>720</v>
       </c>
     </row>
-    <row r="357" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="357" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="2">
         <f t="shared" si="5"/>
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="B357" s="21" t="s">
         <v>90</v>
@@ -13191,10 +13224,10 @@
         <v>638</v>
       </c>
     </row>
-    <row r="358" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="358" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <f t="shared" si="5"/>
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="B358" s="23" t="s">
         <v>140</v>
@@ -13218,10 +13251,10 @@
         <v>638</v>
       </c>
     </row>
-    <row r="359" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="359" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <f t="shared" si="5"/>
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="B359" s="19" t="s">
         <v>139</v>
@@ -13245,10 +13278,10 @@
         <v>702</v>
       </c>
     </row>
-    <row r="360" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="360" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <f t="shared" si="5"/>
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="B360" s="19" t="s">
         <v>140</v>
@@ -13270,10 +13303,10 @@
         <v>702</v>
       </c>
     </row>
-    <row r="361" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="361" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <f t="shared" si="5"/>
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="B361" s="19" t="s">
         <v>140</v>
@@ -13295,10 +13328,10 @@
         <v>630</v>
       </c>
     </row>
-    <row r="362" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="362" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <f t="shared" si="5"/>
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="B362" s="23" t="s">
         <v>140</v>
@@ -13320,10 +13353,10 @@
         <v>721</v>
       </c>
     </row>
-    <row r="363" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1">
+    <row r="363" spans="1:8" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <f t="shared" si="5"/>
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="B363" s="19" t="s">
         <v>139</v>
@@ -13345,252 +13378,252 @@
         <v>638</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="17" customHeight="1">
+    <row r="364" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="29"/>
       <c r="B364" s="2"/>
       <c r="F364" s="2"/>
       <c r="G364" s="2"/>
       <c r="H364" s="2"/>
     </row>
-    <row r="365" spans="1:8" ht="17" customHeight="1">
+    <row r="365" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="29"/>
       <c r="B365" s="2"/>
       <c r="F365" s="2"/>
       <c r="G365" s="2"/>
       <c r="H365" s="2"/>
     </row>
-    <row r="366" spans="1:8" ht="17" customHeight="1">
+    <row r="366" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="29"/>
       <c r="B366" s="2"/>
       <c r="F366" s="2"/>
       <c r="G366" s="2"/>
       <c r="H366" s="2"/>
     </row>
-    <row r="367" spans="1:8" ht="17" customHeight="1">
+    <row r="367" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="29"/>
       <c r="B367" s="2"/>
       <c r="F367" s="2"/>
       <c r="G367" s="2"/>
       <c r="H367" s="2"/>
     </row>
-    <row r="368" spans="1:8" ht="17" customHeight="1">
+    <row r="368" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="29"/>
       <c r="B368" s="2"/>
       <c r="F368" s="2"/>
       <c r="G368" s="2"/>
       <c r="H368" s="2"/>
     </row>
-    <row r="369" spans="1:8" ht="17" customHeight="1">
+    <row r="369" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="29"/>
       <c r="B369" s="2"/>
       <c r="F369" s="2"/>
       <c r="G369" s="2"/>
       <c r="H369" s="2"/>
     </row>
-    <row r="370" spans="1:8" ht="17" customHeight="1">
+    <row r="370" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="29"/>
       <c r="B370" s="2"/>
       <c r="F370" s="2"/>
       <c r="G370" s="2"/>
       <c r="H370" s="2"/>
     </row>
-    <row r="371" spans="1:8" ht="17" customHeight="1">
+    <row r="371" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="29"/>
       <c r="B371" s="2"/>
       <c r="F371" s="2"/>
       <c r="G371" s="2"/>
       <c r="H371" s="2"/>
     </row>
-    <row r="372" spans="1:8" ht="17" customHeight="1">
+    <row r="372" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="29"/>
       <c r="B372" s="2"/>
       <c r="F372" s="2"/>
       <c r="G372" s="2"/>
       <c r="H372" s="2"/>
     </row>
-    <row r="373" spans="1:8" ht="17" customHeight="1">
+    <row r="373" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="29"/>
       <c r="B373" s="2"/>
       <c r="F373" s="2"/>
       <c r="G373" s="2"/>
       <c r="H373" s="2"/>
     </row>
-    <row r="374" spans="1:8" ht="17" customHeight="1">
+    <row r="374" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="29"/>
       <c r="B374" s="2"/>
       <c r="F374" s="2"/>
       <c r="G374" s="2"/>
       <c r="H374" s="2"/>
     </row>
-    <row r="375" spans="1:8" ht="17" customHeight="1">
+    <row r="375" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="29"/>
       <c r="B375" s="2"/>
       <c r="F375" s="2"/>
       <c r="G375" s="2"/>
       <c r="H375" s="2"/>
     </row>
-    <row r="376" spans="1:8" ht="17" customHeight="1">
+    <row r="376" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="29"/>
       <c r="B376" s="2"/>
       <c r="F376" s="2"/>
       <c r="G376" s="2"/>
       <c r="H376" s="2"/>
     </row>
-    <row r="377" spans="1:8" ht="17" customHeight="1">
+    <row r="377" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="29"/>
       <c r="B377" s="2"/>
       <c r="F377" s="2"/>
       <c r="G377" s="2"/>
       <c r="H377" s="2"/>
     </row>
-    <row r="378" spans="1:8" ht="17" customHeight="1">
+    <row r="378" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="29"/>
       <c r="B378" s="2"/>
       <c r="F378" s="2"/>
       <c r="G378" s="2"/>
       <c r="H378" s="2"/>
     </row>
-    <row r="379" spans="1:8" ht="17" customHeight="1">
+    <row r="379" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="29"/>
       <c r="B379" s="2"/>
       <c r="F379" s="2"/>
       <c r="G379" s="2"/>
       <c r="H379" s="2"/>
     </row>
-    <row r="380" spans="1:8" ht="17" customHeight="1">
+    <row r="380" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="29"/>
       <c r="B380" s="2"/>
       <c r="F380" s="2"/>
       <c r="G380" s="2"/>
       <c r="H380" s="2"/>
     </row>
-    <row r="381" spans="1:8" ht="17" customHeight="1">
+    <row r="381" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="29"/>
       <c r="B381" s="2"/>
       <c r="F381" s="2"/>
       <c r="G381" s="2"/>
       <c r="H381" s="2"/>
     </row>
-    <row r="382" spans="1:8" ht="17" customHeight="1">
+    <row r="382" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="29"/>
       <c r="B382" s="2"/>
       <c r="F382" s="2"/>
       <c r="G382" s="2"/>
       <c r="H382" s="2"/>
     </row>
-    <row r="383" spans="1:8" ht="17" customHeight="1">
+    <row r="383" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="29"/>
       <c r="B383" s="2"/>
       <c r="F383" s="2"/>
       <c r="G383" s="2"/>
       <c r="H383" s="2"/>
     </row>
-    <row r="384" spans="1:8" ht="17" customHeight="1">
+    <row r="384" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="29"/>
       <c r="B384" s="2"/>
       <c r="F384" s="2"/>
       <c r="G384" s="2"/>
       <c r="H384" s="2"/>
     </row>
-    <row r="385" spans="1:8" ht="17" customHeight="1">
+    <row r="385" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="29"/>
       <c r="B385" s="2"/>
       <c r="F385" s="2"/>
       <c r="G385" s="2"/>
       <c r="H385" s="2"/>
     </row>
-    <row r="386" spans="1:8" ht="17" customHeight="1">
+    <row r="386" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="29"/>
       <c r="B386" s="2"/>
       <c r="F386" s="2"/>
       <c r="G386" s="2"/>
       <c r="H386" s="2"/>
     </row>
-    <row r="387" spans="1:8" ht="17" customHeight="1">
+    <row r="387" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="29"/>
       <c r="B387" s="2"/>
       <c r="F387" s="2"/>
       <c r="G387" s="2"/>
       <c r="H387" s="2"/>
     </row>
-    <row r="388" spans="1:8" ht="17" customHeight="1">
+    <row r="388" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" s="29"/>
       <c r="B388" s="2"/>
       <c r="F388" s="2"/>
       <c r="G388" s="2"/>
       <c r="H388" s="2"/>
     </row>
-    <row r="389" spans="1:8" ht="17" customHeight="1">
+    <row r="389" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="29"/>
       <c r="B389" s="2"/>
       <c r="F389" s="2"/>
       <c r="G389" s="2"/>
       <c r="H389" s="2"/>
     </row>
-    <row r="390" spans="1:8" ht="17" customHeight="1">
+    <row r="390" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" s="29"/>
       <c r="B390" s="2"/>
       <c r="F390" s="2"/>
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
     </row>
-    <row r="391" spans="1:8" ht="17" customHeight="1">
+    <row r="391" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="29"/>
       <c r="B391" s="2"/>
       <c r="F391" s="2"/>
       <c r="G391" s="2"/>
       <c r="H391" s="2"/>
     </row>
-    <row r="392" spans="1:8" ht="17" customHeight="1">
+    <row r="392" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="29"/>
       <c r="B392" s="2"/>
       <c r="F392" s="2"/>
       <c r="G392" s="2"/>
       <c r="H392" s="2"/>
     </row>
-    <row r="393" spans="1:8" ht="17" customHeight="1">
+    <row r="393" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="29"/>
       <c r="B393" s="2"/>
       <c r="F393" s="2"/>
       <c r="G393" s="2"/>
       <c r="H393" s="2"/>
     </row>
-    <row r="394" spans="1:8" ht="17" customHeight="1">
+    <row r="394" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="29"/>
       <c r="B394" s="2"/>
       <c r="F394" s="2"/>
       <c r="G394" s="2"/>
       <c r="H394" s="2"/>
     </row>
-    <row r="395" spans="1:8" ht="17" customHeight="1">
+    <row r="395" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="29"/>
       <c r="B395" s="2"/>
       <c r="F395" s="2"/>
       <c r="G395" s="2"/>
       <c r="H395" s="2"/>
     </row>
-    <row r="396" spans="1:8" ht="17" customHeight="1">
+    <row r="396" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="29"/>
       <c r="B396" s="2"/>
       <c r="F396" s="2"/>
       <c r="G396" s="2"/>
       <c r="H396" s="2"/>
     </row>
-    <row r="397" spans="1:8" ht="17" customHeight="1">
+    <row r="397" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" s="29"/>
       <c r="B397" s="2"/>
       <c r="F397" s="2"/>
       <c r="G397" s="2"/>
       <c r="H397" s="2"/>
     </row>
-    <row r="398" spans="1:8" ht="17" customHeight="1">
+    <row r="398" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="29"/>
       <c r="B398" s="2"/>
       <c r="F398" s="2"/>
       <c r="G398" s="2"/>
       <c r="H398" s="2"/>
     </row>
-    <row r="399" spans="1:8" ht="17" customHeight="1">
+    <row r="399" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="29"/>
       <c r="B399" s="2"/>
       <c r="F399" s="2"/>
@@ -13598,7 +13631,6 @@
       <c r="H399" s="2"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <sortState ref="A2:XFD1048576">
     <sortCondition ref="A3:A1048576"/>
   </sortState>
@@ -13903,10 +13935,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="60" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId295"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/public/documentation/aact_data_definitions.xlsx
+++ b/public/documentation/aact_data_definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abykova/Projects/aact-admin/public/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AD6287-9154-574F-BA4C-FD927035A79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5900D9F7-D26A-DB48-86E0-EE146663B46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-5500" windowWidth="38400" windowHeight="22120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AACT Tables and Columns" sheetId="1" r:id="rId1"/>
@@ -3259,6 +3259,7 @@
       <sz val="12"/>
       <color rgb="FF4D5D2C"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4629,8 +4630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1023"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A453" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="H300" sqref="H300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15834,7 +15835,7 @@
     </row>
     <row r="363" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="144">
-        <f t="shared" ref="A342:A400" si="7">(A362+1)</f>
+        <f t="shared" ref="A363:A400" si="7">(A362+1)</f>
         <v>362</v>
       </c>
       <c r="B363" s="36" t="s">

--- a/public/documentation/aact_data_definitions.xlsx
+++ b/public/documentation/aact_data_definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abykova/Projects/aact-admin/public/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5045065-C838-FC4A-B66B-915DB5849BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B944A210-689C-8D49-8D12-D9653C250817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35040" yWindow="-3060" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AACT Tables and Columns" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3404" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3412" uniqueCount="898">
   <si>
     <t>db schema</t>
   </si>
@@ -3200,14 +3200,38 @@
     <t>restrictive_agreement</t>
   </si>
   <si>
-    <t xml:space="preserve">Using Report_event table </t>
+    <t>Indicates the level of the MeSH term within the hierarchy</t>
+  </si>
+  <si>
+    <t>Indicates the type of restriction if the agreement is restrictive</t>
+  </si>
+  <si>
+    <t>Contains the additional details of note regarding the agreement</t>
+  </si>
+  <si>
+    <t>Indicates if the agreement is restrictive or not</t>
+  </si>
+  <si>
+    <t>Code to connect to results</t>
+  </si>
+  <si>
+    <t>Indicates the type of event (options are "Serious", "Other" and "Deaths")</t>
+  </si>
+  <si>
+    <t>Further explanation of the type of total</t>
+  </si>
+  <si>
+    <t>Number of subjects affected by the event</t>
+  </si>
+  <si>
+    <t>Number of subjects that were at risk of being affected by the event</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3252,6 +3276,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3279,7 +3313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -3794,11 +3828,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4104,7 +4162,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4177,6 +4234,26 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4395,19 +4472,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1028"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A286" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="C319" sqref="C319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="140" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="139" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="13" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="13" customWidth="1"/>
     <col min="4" max="4" width="37.5" style="13" customWidth="1"/>
     <col min="5" max="5" width="36.5" style="13" customWidth="1"/>
     <col min="6" max="6" width="19" style="13" customWidth="1"/>
-    <col min="7" max="7" width="56.5" style="13" customWidth="1"/>
+    <col min="7" max="7" width="68.5" style="13" customWidth="1"/>
     <col min="8" max="8" width="39.83203125" style="13" customWidth="1"/>
     <col min="9" max="9" width="33.6640625" style="13" customWidth="1"/>
     <col min="10" max="26" width="10.6640625" style="13" customWidth="1"/>
@@ -4415,7 +4492,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131"/>
+      <c r="A1" s="130"/>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4444,7 +4521,7 @@
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="132">
+      <c r="A2" s="131">
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -4473,7 +4550,7 @@
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="133">
+      <c r="A3" s="132">
         <f t="shared" ref="A3:A23" si="0">(A2+1)</f>
         <v>2</v>
       </c>
@@ -4503,7 +4580,7 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="134">
+      <c r="A4" s="133">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4533,7 +4610,7 @@
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="134">
+      <c r="A5" s="133">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -4563,7 +4640,7 @@
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="134">
+      <c r="A6" s="133">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4593,7 +4670,7 @@
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="134">
+      <c r="A7" s="133">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -4623,7 +4700,7 @@
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="134">
+      <c r="A8" s="133">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -4655,7 +4732,7 @@
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="134">
+      <c r="A9" s="133">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -4687,7 +4764,7 @@
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="134">
+      <c r="A10" s="133">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -4717,7 +4794,7 @@
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="134">
+      <c r="A11" s="133">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -4749,7 +4826,7 @@
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="134">
+      <c r="A12" s="133">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -4781,7 +4858,7 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="134">
+      <c r="A13" s="133">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -4813,7 +4890,7 @@
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="134">
+      <c r="A14" s="133">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -4845,7 +4922,7 @@
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="134">
+      <c r="A15" s="133">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -4875,7 +4952,7 @@
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="134">
+      <c r="A16" s="133">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -4907,7 +4984,7 @@
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="134">
+      <c r="A17" s="133">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -4939,7 +5016,7 @@
       <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="134">
+      <c r="A18" s="133">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -4969,7 +5046,7 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="134">
+      <c r="A19" s="133">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -4999,7 +5076,7 @@
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="134">
+      <c r="A20" s="133">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -5029,7 +5106,7 @@
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="134">
+      <c r="A21" s="133">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -5055,7 +5132,7 @@
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="134">
+      <c r="A22" s="133">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -5085,7 +5162,7 @@
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="134">
+      <c r="A23" s="133">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -5115,7 +5192,7 @@
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="134">
+      <c r="A24" s="133">
         <f t="shared" ref="A24:A89" si="1">(A23+1)</f>
         <v>23</v>
       </c>
@@ -5141,7 +5218,7 @@
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="134">
+      <c r="A25" s="133">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -5170,8 +5247,8 @@
       <c r="J25" s="11"/>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="134">
+    <row r="26" spans="1:11" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="133">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -5201,7 +5278,7 @@
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="134">
+      <c r="A27" s="133">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
@@ -5227,7 +5304,7 @@
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="134">
+      <c r="A28" s="133">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
@@ -5257,7 +5334,7 @@
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="134">
+      <c r="A29" s="133">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -5287,7 +5364,7 @@
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="134">
+      <c r="A30" s="133">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
@@ -5313,7 +5390,7 @@
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="134">
+      <c r="A31" s="133">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -5343,7 +5420,7 @@
       <c r="K31" s="12"/>
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="134">
+      <c r="A32" s="133">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
@@ -5373,7 +5450,7 @@
       <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="134">
+      <c r="A33" s="133">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
@@ -5403,7 +5480,7 @@
       <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="134">
+      <c r="A34" s="133">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
@@ -5433,7 +5510,7 @@
       <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="134">
+      <c r="A35" s="133">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
@@ -5463,7 +5540,7 @@
       <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="134">
+      <c r="A36" s="133">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
@@ -5493,7 +5570,7 @@
       <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="134">
+      <c r="A37" s="133">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
@@ -5523,7 +5600,7 @@
       <c r="K37" s="12"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="134">
+      <c r="A38" s="133">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
@@ -5553,7 +5630,7 @@
       <c r="K38" s="12"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="134">
+      <c r="A39" s="133">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
@@ -5583,7 +5660,7 @@
       <c r="K39" s="12"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="134">
+      <c r="A40" s="133">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
@@ -5615,7 +5692,7 @@
       <c r="K40" s="12"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="134">
+      <c r="A41" s="133">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
@@ -5645,7 +5722,7 @@
       <c r="K41" s="12"/>
     </row>
     <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="134">
+      <c r="A42" s="133">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
@@ -5675,7 +5752,7 @@
       <c r="K42" s="12"/>
     </row>
     <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="134">
+      <c r="A43" s="133">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
@@ -5705,7 +5782,7 @@
       <c r="K43" s="12"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="134">
+      <c r="A44" s="133">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
@@ -5735,7 +5812,7 @@
       <c r="K44" s="12"/>
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="134">
+      <c r="A45" s="133">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -5765,7 +5842,7 @@
       <c r="K45" s="12"/>
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="134">
+      <c r="A46" s="133">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -5795,7 +5872,7 @@
       <c r="K46" s="12"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="134">
+      <c r="A47" s="133">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
@@ -5825,7 +5902,7 @@
       <c r="K47" s="12"/>
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="134">
+      <c r="A48" s="133">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
@@ -5855,7 +5932,7 @@
       <c r="K48" s="12"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="134">
+      <c r="A49" s="133">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
@@ -5885,7 +5962,7 @@
       <c r="K49" s="12"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="134">
+      <c r="A50" s="133">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
@@ -5915,7 +5992,7 @@
       <c r="K50" s="12"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="134">
+      <c r="A51" s="133">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -5945,7 +6022,7 @@
       <c r="K51" s="12"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="134">
+      <c r="A52" s="133">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
@@ -5975,7 +6052,7 @@
       <c r="K52" s="12"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="134">
+      <c r="A53" s="133">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
@@ -6005,7 +6082,7 @@
       <c r="K53" s="12"/>
     </row>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="134">
+      <c r="A54" s="133">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
@@ -6035,7 +6112,7 @@
       <c r="K54" s="12"/>
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="134">
+      <c r="A55" s="133">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
@@ -6065,7 +6142,7 @@
       <c r="K55" s="12"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="134">
+      <c r="A56" s="133">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -6097,7 +6174,7 @@
       <c r="K56" s="12"/>
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="134">
+      <c r="A57" s="133">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
@@ -6127,7 +6204,7 @@
       <c r="K57" s="12"/>
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="134">
+      <c r="A58" s="133">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
@@ -6157,7 +6234,7 @@
       <c r="K58" s="12"/>
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="134">
+      <c r="A59" s="133">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
@@ -6187,7 +6264,7 @@
       <c r="K59" s="12"/>
     </row>
     <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="134">
+      <c r="A60" s="133">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
@@ -6217,7 +6294,7 @@
       <c r="K60" s="12"/>
     </row>
     <row r="61" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="134">
+      <c r="A61" s="133">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -6245,7 +6322,7 @@
       <c r="K61" s="12"/>
     </row>
     <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="134">
+      <c r="A62" s="133">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
@@ -6273,7 +6350,7 @@
       <c r="K62" s="12"/>
     </row>
     <row r="63" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="134">
+      <c r="A63" s="133">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
@@ -6301,7 +6378,7 @@
       <c r="K63" s="12"/>
     </row>
     <row r="64" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="134">
+      <c r="A64" s="133">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
@@ -6331,7 +6408,7 @@
       <c r="K64" s="12"/>
     </row>
     <row r="65" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="134">
+      <c r="A65" s="133">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
@@ -6361,7 +6438,7 @@
       <c r="K65" s="12"/>
     </row>
     <row r="66" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="134">
+      <c r="A66" s="133">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
@@ -6391,7 +6468,7 @@
       <c r="K66" s="12"/>
     </row>
     <row r="67" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="134">
+      <c r="A67" s="133">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
@@ -6421,7 +6498,7 @@
       <c r="K67" s="12"/>
     </row>
     <row r="68" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="134">
+      <c r="A68" s="133">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
@@ -6449,7 +6526,7 @@
       <c r="K68" s="12"/>
     </row>
     <row r="69" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="134">
+      <c r="A69" s="133">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
@@ -6479,7 +6556,7 @@
       <c r="K69" s="12"/>
     </row>
     <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="134">
+      <c r="A70" s="133">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
@@ -6509,7 +6586,7 @@
       <c r="K70" s="12"/>
     </row>
     <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="134">
+      <c r="A71" s="133">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -6539,7 +6616,7 @@
       <c r="K71" s="12"/>
     </row>
     <row r="72" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="134">
+      <c r="A72" s="133">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
@@ -6569,7 +6646,7 @@
       <c r="K72" s="12"/>
     </row>
     <row r="73" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="134">
+      <c r="A73" s="133">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
@@ -6601,7 +6678,7 @@
       <c r="K73" s="12"/>
     </row>
     <row r="74" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="134">
+      <c r="A74" s="133">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
@@ -6633,7 +6710,7 @@
       <c r="K74" s="12"/>
     </row>
     <row r="75" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="134">
+      <c r="A75" s="133">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
@@ -6663,7 +6740,7 @@
       <c r="K75" s="12"/>
     </row>
     <row r="76" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="134">
+      <c r="A76" s="133">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -6693,7 +6770,7 @@
       <c r="K76" s="12"/>
     </row>
     <row r="77" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="134">
+      <c r="A77" s="133">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
@@ -6723,7 +6800,7 @@
       <c r="K77" s="12"/>
     </row>
     <row r="78" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="134">
+      <c r="A78" s="133">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
@@ -6753,14 +6830,14 @@
       <c r="K78" s="12"/>
     </row>
     <row r="79" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="134">
+      <c r="A79" s="133">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C79" s="124" t="s">
+      <c r="C79" s="123" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="7" t="s">
@@ -6775,13 +6852,13 @@
       <c r="G79" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="H79" s="126"/>
-      <c r="I79" s="127"/>
+      <c r="H79" s="125"/>
+      <c r="I79" s="126"/>
       <c r="J79" s="18"/>
       <c r="K79" s="12"/>
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="134">
+      <c r="A80" s="133">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
@@ -6800,8 +6877,8 @@
       <c r="F80" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="7" t="s">
-        <v>862</v>
+      <c r="G80" s="141" t="s">
+        <v>889</v>
       </c>
       <c r="H80" s="42"/>
       <c r="I80" s="33"/>
@@ -6809,7 +6886,7 @@
       <c r="K80" s="12"/>
     </row>
     <row r="81" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="134">
+      <c r="A81" s="133">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
@@ -6839,7 +6916,7 @@
       <c r="K81" s="12"/>
     </row>
     <row r="82" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="134">
+      <c r="A82" s="133">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
@@ -6869,7 +6946,7 @@
       <c r="K82" s="12"/>
     </row>
     <row r="83" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="134">
+      <c r="A83" s="133">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
@@ -6899,7 +6976,7 @@
       <c r="K83" s="12"/>
     </row>
     <row r="84" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="134">
+      <c r="A84" s="133">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
@@ -6918,16 +6995,16 @@
       <c r="F84" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="G84" s="140" t="s">
         <v>862</v>
       </c>
-      <c r="H84" s="125"/>
-      <c r="I84" s="127"/>
+      <c r="H84" s="124"/>
+      <c r="I84" s="126"/>
       <c r="J84" s="18"/>
       <c r="K84" s="12"/>
     </row>
     <row r="85" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="134">
+      <c r="A85" s="133">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
@@ -6946,8 +7023,8 @@
       <c r="F85" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G85" s="7" t="s">
-        <v>862</v>
+      <c r="G85" s="141" t="s">
+        <v>889</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
@@ -6955,7 +7032,7 @@
       <c r="K85" s="12"/>
     </row>
     <row r="86" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="134">
+      <c r="A86" s="133">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
@@ -6985,7 +7062,7 @@
       <c r="K86" s="12"/>
     </row>
     <row r="87" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="134">
+      <c r="A87" s="133">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
@@ -7015,7 +7092,7 @@
       <c r="K87" s="12"/>
     </row>
     <row r="88" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="134">
+      <c r="A88" s="133">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
@@ -7047,7 +7124,7 @@
       <c r="K88" s="12"/>
     </row>
     <row r="89" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="134">
+      <c r="A89" s="133">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
@@ -7079,7 +7156,7 @@
       <c r="K89" s="12"/>
     </row>
     <row r="90" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="134">
+      <c r="A90" s="133">
         <f t="shared" ref="A90:A153" si="2">(A89+1)</f>
         <v>89</v>
       </c>
@@ -7111,7 +7188,7 @@
       <c r="K90" s="12"/>
     </row>
     <row r="91" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="134">
+      <c r="A91" s="133">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
@@ -7143,7 +7220,7 @@
       <c r="K91" s="12"/>
     </row>
     <row r="92" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="134">
+      <c r="A92" s="133">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
@@ -7173,7 +7250,7 @@
       <c r="K92" s="12"/>
     </row>
     <row r="93" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="134">
+      <c r="A93" s="133">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
@@ -7205,7 +7282,7 @@
       <c r="K93" s="12"/>
     </row>
     <row r="94" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="134">
+      <c r="A94" s="133">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
@@ -7235,7 +7312,7 @@
       <c r="K94" s="12"/>
     </row>
     <row r="95" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="134">
+      <c r="A95" s="133">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
@@ -7265,7 +7342,7 @@
       <c r="K95" s="12"/>
     </row>
     <row r="96" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="134">
+      <c r="A96" s="133">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
@@ -7297,7 +7374,7 @@
       <c r="K96" s="12"/>
     </row>
     <row r="97" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="134">
+      <c r="A97" s="133">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
@@ -7329,7 +7406,7 @@
       <c r="K97" s="12"/>
     </row>
     <row r="98" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="134">
+      <c r="A98" s="133">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
@@ -7361,7 +7438,7 @@
       <c r="K98" s="12"/>
     </row>
     <row r="99" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="134">
+      <c r="A99" s="133">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
@@ -7393,7 +7470,7 @@
       <c r="K99" s="12"/>
     </row>
     <row r="100" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="134">
+      <c r="A100" s="133">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
@@ -7425,7 +7502,7 @@
       <c r="K100" s="12"/>
     </row>
     <row r="101" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="134">
+      <c r="A101" s="133">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -7457,7 +7534,7 @@
       <c r="K101" s="12"/>
     </row>
     <row r="102" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="134">
+      <c r="A102" s="133">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
@@ -7487,7 +7564,7 @@
       <c r="K102" s="12"/>
     </row>
     <row r="103" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="134">
+      <c r="A103" s="133">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
@@ -7517,7 +7594,7 @@
       <c r="K103" s="12"/>
     </row>
     <row r="104" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="134">
+      <c r="A104" s="133">
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
@@ -7547,7 +7624,7 @@
       <c r="K104" s="12"/>
     </row>
     <row r="105" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="134">
+      <c r="A105" s="133">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
@@ -7579,7 +7656,7 @@
       <c r="K105" s="12"/>
     </row>
     <row r="106" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="134">
+      <c r="A106" s="133">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
@@ -7611,7 +7688,7 @@
       <c r="K106" s="12"/>
     </row>
     <row r="107" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="134">
+      <c r="A107" s="133">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
@@ -7643,7 +7720,7 @@
       <c r="K107" s="12"/>
     </row>
     <row r="108" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="134">
+      <c r="A108" s="133">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
@@ -7673,7 +7750,7 @@
       <c r="K108" s="12"/>
     </row>
     <row r="109" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="134">
+      <c r="A109" s="133">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
@@ -7703,7 +7780,7 @@
       <c r="K109" s="12"/>
     </row>
     <row r="110" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="134">
+      <c r="A110" s="133">
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
@@ -7733,7 +7810,7 @@
       <c r="K110" s="12"/>
     </row>
     <row r="111" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="134">
+      <c r="A111" s="133">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
@@ -7765,7 +7842,7 @@
       <c r="K111" s="12"/>
     </row>
     <row r="112" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="134">
+      <c r="A112" s="133">
         <f t="shared" si="2"/>
         <v>111</v>
       </c>
@@ -7797,7 +7874,7 @@
       <c r="K112" s="12"/>
     </row>
     <row r="113" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="134">
+      <c r="A113" s="133">
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
@@ -7827,7 +7904,7 @@
       <c r="K113" s="12"/>
     </row>
     <row r="114" spans="1:11" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="135">
+      <c r="A114" s="134">
         <f t="shared" si="2"/>
         <v>113</v>
       </c>
@@ -7853,7 +7930,7 @@
       <c r="K114" s="46"/>
     </row>
     <row r="115" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="134">
+      <c r="A115" s="133">
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
@@ -7885,7 +7962,7 @@
       <c r="K115" s="12"/>
     </row>
     <row r="116" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="134">
+      <c r="A116" s="133">
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
@@ -7917,7 +7994,7 @@
       <c r="K116" s="12"/>
     </row>
     <row r="117" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="134">
+      <c r="A117" s="133">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
@@ -7947,7 +8024,7 @@
       <c r="K117" s="12"/>
     </row>
     <row r="118" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="134">
+      <c r="A118" s="133">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
@@ -7979,7 +8056,7 @@
       <c r="K118" s="12"/>
     </row>
     <row r="119" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="134">
+      <c r="A119" s="133">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
@@ -8011,7 +8088,7 @@
       <c r="K119" s="12"/>
     </row>
     <row r="120" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="134">
+      <c r="A120" s="133">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
@@ -8043,7 +8120,7 @@
       <c r="K120" s="12"/>
     </row>
     <row r="121" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="134">
+      <c r="A121" s="133">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
@@ -8073,7 +8150,7 @@
       <c r="K121" s="12"/>
     </row>
     <row r="122" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="134">
+      <c r="A122" s="133">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
@@ -8105,7 +8182,7 @@
       <c r="K122" s="12"/>
     </row>
     <row r="123" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="134">
+      <c r="A123" s="133">
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
@@ -8135,7 +8212,7 @@
       <c r="K123" s="12"/>
     </row>
     <row r="124" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="134">
+      <c r="A124" s="133">
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
@@ -8167,7 +8244,7 @@
       <c r="K124" s="12"/>
     </row>
     <row r="125" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="134">
+      <c r="A125" s="133">
         <f t="shared" si="2"/>
         <v>124</v>
       </c>
@@ -8199,7 +8276,7 @@
       <c r="K125" s="12"/>
     </row>
     <row r="126" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="134">
+      <c r="A126" s="133">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
@@ -8231,7 +8308,7 @@
       <c r="K126" s="12"/>
     </row>
     <row r="127" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="134">
+      <c r="A127" s="133">
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
@@ -8261,7 +8338,7 @@
       <c r="K127" s="12"/>
     </row>
     <row r="128" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="134">
+      <c r="A128" s="133">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
@@ -8291,7 +8368,7 @@
       <c r="K128" s="12"/>
     </row>
     <row r="129" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="134">
+      <c r="A129" s="133">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
@@ -8321,7 +8398,7 @@
       <c r="K129" s="12"/>
     </row>
     <row r="130" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="134">
+      <c r="A130" s="133">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
@@ -8351,7 +8428,7 @@
       <c r="K130" s="12"/>
     </row>
     <row r="131" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="134">
+      <c r="A131" s="133">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
@@ -8383,7 +8460,7 @@
       <c r="K131" s="12"/>
     </row>
     <row r="132" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="134">
+      <c r="A132" s="133">
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
@@ -8415,7 +8492,7 @@
       <c r="K132" s="12"/>
     </row>
     <row r="133" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="134">
+      <c r="A133" s="133">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
@@ -8445,7 +8522,7 @@
       <c r="K133" s="12"/>
     </row>
     <row r="134" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="134">
+      <c r="A134" s="133">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
@@ -8475,7 +8552,7 @@
       <c r="K134" s="12"/>
     </row>
     <row r="135" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="134">
+      <c r="A135" s="133">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
@@ -8505,7 +8582,7 @@
       <c r="K135" s="12"/>
     </row>
     <row r="136" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="134">
+      <c r="A136" s="133">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
@@ -8535,7 +8612,7 @@
       <c r="K136" s="12"/>
     </row>
     <row r="137" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="134">
+      <c r="A137" s="133">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
@@ -8565,7 +8642,7 @@
       <c r="K137" s="12"/>
     </row>
     <row r="138" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="134">
+      <c r="A138" s="133">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
@@ -8595,7 +8672,7 @@
       <c r="K138" s="12"/>
     </row>
     <row r="139" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="134">
+      <c r="A139" s="133">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
@@ -8625,7 +8702,7 @@
       <c r="K139" s="12"/>
     </row>
     <row r="140" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="134">
+      <c r="A140" s="133">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
@@ -8655,7 +8732,7 @@
       <c r="K140" s="12"/>
     </row>
     <row r="141" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="134">
+      <c r="A141" s="133">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
@@ -8687,7 +8764,7 @@
       <c r="K141" s="12"/>
     </row>
     <row r="142" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="134">
+      <c r="A142" s="133">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
@@ -8719,7 +8796,7 @@
       <c r="K142" s="12"/>
     </row>
     <row r="143" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="134">
+      <c r="A143" s="133">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
@@ -8751,7 +8828,7 @@
       <c r="K143" s="12"/>
     </row>
     <row r="144" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="134">
+      <c r="A144" s="133">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
@@ -8783,7 +8860,7 @@
       <c r="K144" s="12"/>
     </row>
     <row r="145" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="134">
+      <c r="A145" s="133">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
@@ -8815,7 +8892,7 @@
       <c r="K145" s="12"/>
     </row>
     <row r="146" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="134">
+      <c r="A146" s="133">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
@@ -8847,7 +8924,7 @@
       <c r="K146" s="12"/>
     </row>
     <row r="147" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="134">
+      <c r="A147" s="133">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
@@ -8877,7 +8954,7 @@
       <c r="K147" s="12"/>
     </row>
     <row r="148" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="134">
+      <c r="A148" s="133">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
@@ -8909,7 +8986,7 @@
       <c r="K148" s="51"/>
     </row>
     <row r="149" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="134">
+      <c r="A149" s="133">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
@@ -8941,7 +9018,7 @@
       <c r="K149" s="51"/>
     </row>
     <row r="150" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="134">
+      <c r="A150" s="133">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
@@ -8971,7 +9048,7 @@
       <c r="K150" s="51"/>
     </row>
     <row r="151" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="134">
+      <c r="A151" s="133">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
@@ -9001,7 +9078,7 @@
       <c r="K151" s="51"/>
     </row>
     <row r="152" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="134">
+      <c r="A152" s="133">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
@@ -9031,7 +9108,7 @@
       <c r="K152" s="51"/>
     </row>
     <row r="153" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="134">
+      <c r="A153" s="133">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
@@ -9061,7 +9138,7 @@
       <c r="K153" s="51"/>
     </row>
     <row r="154" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="134">
+      <c r="A154" s="133">
         <f t="shared" ref="A154:A217" si="3">(A153+1)</f>
         <v>153</v>
       </c>
@@ -9093,7 +9170,7 @@
       <c r="K154" s="12"/>
     </row>
     <row r="155" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="134">
+      <c r="A155" s="133">
         <f t="shared" si="3"/>
         <v>154</v>
       </c>
@@ -9125,7 +9202,7 @@
       <c r="K155" s="51"/>
     </row>
     <row r="156" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="134">
+      <c r="A156" s="133">
         <f t="shared" si="3"/>
         <v>155</v>
       </c>
@@ -9155,7 +9232,7 @@
       <c r="K156" s="51"/>
     </row>
     <row r="157" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="134">
+      <c r="A157" s="133">
         <f t="shared" si="3"/>
         <v>156</v>
       </c>
@@ -9185,7 +9262,7 @@
       <c r="K157" s="51"/>
     </row>
     <row r="158" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="134">
+      <c r="A158" s="133">
         <f t="shared" si="3"/>
         <v>157</v>
       </c>
@@ -9215,7 +9292,7 @@
       <c r="K158" s="51"/>
     </row>
     <row r="159" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="134">
+      <c r="A159" s="133">
         <f t="shared" si="3"/>
         <v>158</v>
       </c>
@@ -9245,7 +9322,7 @@
       <c r="K159" s="51"/>
     </row>
     <row r="160" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="134">
+      <c r="A160" s="133">
         <f t="shared" si="3"/>
         <v>159</v>
       </c>
@@ -9275,7 +9352,7 @@
       <c r="K160" s="51"/>
     </row>
     <row r="161" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="134">
+      <c r="A161" s="133">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
@@ -9305,7 +9382,7 @@
       <c r="K161" s="51"/>
     </row>
     <row r="162" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="134">
+      <c r="A162" s="133">
         <f t="shared" si="3"/>
         <v>161</v>
       </c>
@@ -9337,7 +9414,7 @@
       <c r="K162" s="12"/>
     </row>
     <row r="163" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="134">
+      <c r="A163" s="133">
         <f t="shared" si="3"/>
         <v>162</v>
       </c>
@@ -9369,7 +9446,7 @@
       <c r="K163" s="12"/>
     </row>
     <row r="164" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="134">
+      <c r="A164" s="133">
         <f t="shared" si="3"/>
         <v>163</v>
       </c>
@@ -9399,7 +9476,7 @@
       <c r="K164" s="12"/>
     </row>
     <row r="165" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="134">
+      <c r="A165" s="133">
         <f t="shared" si="3"/>
         <v>164</v>
       </c>
@@ -9429,7 +9506,7 @@
       <c r="K165" s="12"/>
     </row>
     <row r="166" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="134">
+      <c r="A166" s="133">
         <f t="shared" si="3"/>
         <v>165</v>
       </c>
@@ -9459,7 +9536,7 @@
       <c r="K166" s="12"/>
     </row>
     <row r="167" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="134">
+      <c r="A167" s="133">
         <f t="shared" si="3"/>
         <v>166</v>
       </c>
@@ -9489,7 +9566,7 @@
       <c r="K167" s="12"/>
     </row>
     <row r="168" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="134">
+      <c r="A168" s="133">
         <f t="shared" si="3"/>
         <v>167</v>
       </c>
@@ -9519,7 +9596,7 @@
       <c r="K168" s="12"/>
     </row>
     <row r="169" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="134">
+      <c r="A169" s="133">
         <f t="shared" si="3"/>
         <v>168</v>
       </c>
@@ -9549,7 +9626,7 @@
       <c r="K169" s="12"/>
     </row>
     <row r="170" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="134">
+      <c r="A170" s="133">
         <f t="shared" si="3"/>
         <v>169</v>
       </c>
@@ -9579,7 +9656,7 @@
       <c r="K170" s="12"/>
     </row>
     <row r="171" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="134">
+      <c r="A171" s="133">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
@@ -9609,7 +9686,7 @@
       <c r="K171" s="12"/>
     </row>
     <row r="172" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="134">
+      <c r="A172" s="133">
         <f t="shared" si="3"/>
         <v>171</v>
       </c>
@@ -9639,7 +9716,7 @@
       <c r="K172" s="12"/>
     </row>
     <row r="173" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="134">
+      <c r="A173" s="133">
         <f t="shared" si="3"/>
         <v>172</v>
       </c>
@@ -9671,7 +9748,7 @@
       <c r="K173" s="12"/>
     </row>
     <row r="174" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="134">
+      <c r="A174" s="133">
         <f t="shared" si="3"/>
         <v>173</v>
       </c>
@@ -9703,7 +9780,7 @@
       <c r="K174" s="12"/>
     </row>
     <row r="175" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="134">
+      <c r="A175" s="133">
         <f t="shared" si="3"/>
         <v>174</v>
       </c>
@@ -9733,7 +9810,7 @@
       <c r="K175" s="12"/>
     </row>
     <row r="176" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="134">
+      <c r="A176" s="133">
         <f t="shared" si="3"/>
         <v>175</v>
       </c>
@@ -9763,7 +9840,7 @@
       <c r="K176" s="12"/>
     </row>
     <row r="177" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="134">
+      <c r="A177" s="133">
         <f t="shared" si="3"/>
         <v>176</v>
       </c>
@@ -9793,7 +9870,7 @@
       <c r="K177" s="12"/>
     </row>
     <row r="178" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="134">
+      <c r="A178" s="133">
         <f t="shared" si="3"/>
         <v>177</v>
       </c>
@@ -9823,7 +9900,7 @@
       <c r="K178" s="12"/>
     </row>
     <row r="179" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="134">
+      <c r="A179" s="133">
         <f t="shared" si="3"/>
         <v>178</v>
       </c>
@@ -9853,7 +9930,7 @@
       <c r="K179" s="12"/>
     </row>
     <row r="180" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="134">
+      <c r="A180" s="133">
         <f t="shared" si="3"/>
         <v>179</v>
       </c>
@@ -9883,7 +9960,7 @@
       <c r="K180" s="12"/>
     </row>
     <row r="181" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="134">
+      <c r="A181" s="133">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
@@ -9915,7 +9992,7 @@
       <c r="K181" s="12"/>
     </row>
     <row r="182" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="134">
+      <c r="A182" s="133">
         <f t="shared" si="3"/>
         <v>181</v>
       </c>
@@ -9947,7 +10024,7 @@
       <c r="K182" s="12"/>
     </row>
     <row r="183" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="134">
+      <c r="A183" s="133">
         <f t="shared" si="3"/>
         <v>182</v>
       </c>
@@ -9979,7 +10056,7 @@
       <c r="K183" s="12"/>
     </row>
     <row r="184" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="134">
+      <c r="A184" s="133">
         <f t="shared" si="3"/>
         <v>183</v>
       </c>
@@ -10011,7 +10088,7 @@
       <c r="K184" s="12"/>
     </row>
     <row r="185" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="134">
+      <c r="A185" s="133">
         <f t="shared" si="3"/>
         <v>184</v>
       </c>
@@ -10041,7 +10118,7 @@
       <c r="K185" s="12"/>
     </row>
     <row r="186" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="134">
+      <c r="A186" s="133">
         <f t="shared" si="3"/>
         <v>185</v>
       </c>
@@ -10071,7 +10148,7 @@
       <c r="K186" s="12"/>
     </row>
     <row r="187" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="134">
+      <c r="A187" s="133">
         <f t="shared" si="3"/>
         <v>186</v>
       </c>
@@ -10101,7 +10178,7 @@
       <c r="K187" s="12"/>
     </row>
     <row r="188" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="134">
+      <c r="A188" s="133">
         <f t="shared" si="3"/>
         <v>187</v>
       </c>
@@ -10133,7 +10210,7 @@
       <c r="K188" s="12"/>
     </row>
     <row r="189" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="134">
+      <c r="A189" s="133">
         <f t="shared" si="3"/>
         <v>188</v>
       </c>
@@ -10165,7 +10242,7 @@
       <c r="K189" s="12"/>
     </row>
     <row r="190" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="134">
+      <c r="A190" s="133">
         <f t="shared" si="3"/>
         <v>189</v>
       </c>
@@ -10197,7 +10274,7 @@
       <c r="K190" s="12"/>
     </row>
     <row r="191" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="134">
+      <c r="A191" s="133">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
@@ -10227,7 +10304,7 @@
       <c r="K191" s="12"/>
     </row>
     <row r="192" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="134">
+      <c r="A192" s="133">
         <f t="shared" si="3"/>
         <v>191</v>
       </c>
@@ -10259,7 +10336,7 @@
       <c r="K192" s="12"/>
     </row>
     <row r="193" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="134">
+      <c r="A193" s="133">
         <f t="shared" si="3"/>
         <v>192</v>
       </c>
@@ -10291,7 +10368,7 @@
       <c r="K193" s="12"/>
     </row>
     <row r="194" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="134">
+      <c r="A194" s="133">
         <f t="shared" si="3"/>
         <v>193</v>
       </c>
@@ -10323,7 +10400,7 @@
       <c r="K194" s="12"/>
     </row>
     <row r="195" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="134">
+      <c r="A195" s="133">
         <f t="shared" si="3"/>
         <v>194</v>
       </c>
@@ -10353,7 +10430,7 @@
       <c r="K195" s="12"/>
     </row>
     <row r="196" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="134">
+      <c r="A196" s="133">
         <f t="shared" si="3"/>
         <v>195</v>
       </c>
@@ -10385,7 +10462,7 @@
       <c r="K196" s="12"/>
     </row>
     <row r="197" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="134">
+      <c r="A197" s="133">
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
@@ -10417,7 +10494,7 @@
       <c r="K197" s="12"/>
     </row>
     <row r="198" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="134">
+      <c r="A198" s="133">
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
@@ -10447,7 +10524,7 @@
       <c r="K198" s="12"/>
     </row>
     <row r="199" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="134">
+      <c r="A199" s="133">
         <f t="shared" si="3"/>
         <v>198</v>
       </c>
@@ -10477,7 +10554,7 @@
       <c r="K199" s="12"/>
     </row>
     <row r="200" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="134">
+      <c r="A200" s="133">
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
@@ -10507,7 +10584,7 @@
       <c r="K200" s="12"/>
     </row>
     <row r="201" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="134">
+      <c r="A201" s="133">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
@@ -10539,7 +10616,7 @@
       <c r="K201" s="12"/>
     </row>
     <row r="202" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="134">
+      <c r="A202" s="133">
         <f t="shared" si="3"/>
         <v>201</v>
       </c>
@@ -10571,7 +10648,7 @@
       <c r="K202" s="12"/>
     </row>
     <row r="203" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="134">
+      <c r="A203" s="133">
         <f t="shared" si="3"/>
         <v>202</v>
       </c>
@@ -10603,7 +10680,7 @@
       <c r="K203" s="12"/>
     </row>
     <row r="204" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="134">
+      <c r="A204" s="133">
         <f t="shared" si="3"/>
         <v>203</v>
       </c>
@@ -10633,7 +10710,7 @@
       <c r="K204" s="12"/>
     </row>
     <row r="205" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="134">
+      <c r="A205" s="133">
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
@@ -10663,7 +10740,7 @@
       <c r="K205" s="12"/>
     </row>
     <row r="206" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="134">
+      <c r="A206" s="133">
         <f t="shared" si="3"/>
         <v>205</v>
       </c>
@@ -10695,7 +10772,7 @@
       <c r="K206" s="12"/>
     </row>
     <row r="207" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="134">
+      <c r="A207" s="133">
         <f t="shared" si="3"/>
         <v>206</v>
       </c>
@@ -10727,7 +10804,7 @@
       <c r="K207" s="12"/>
     </row>
     <row r="208" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="134">
+      <c r="A208" s="133">
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
@@ -10757,7 +10834,7 @@
       <c r="K208" s="12"/>
     </row>
     <row r="209" spans="1:11" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="135">
+      <c r="A209" s="134">
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
@@ -10788,7 +10865,7 @@
       <c r="J209" s="80"/>
     </row>
     <row r="210" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="134">
+      <c r="A210" s="133">
         <f t="shared" si="3"/>
         <v>209</v>
       </c>
@@ -10820,7 +10897,7 @@
       <c r="K210" s="12"/>
     </row>
     <row r="211" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="134">
+      <c r="A211" s="133">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
@@ -10852,7 +10929,7 @@
       <c r="K211" s="12"/>
     </row>
     <row r="212" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="134">
+      <c r="A212" s="133">
         <f t="shared" si="3"/>
         <v>211</v>
       </c>
@@ -10882,7 +10959,7 @@
       <c r="K212" s="12"/>
     </row>
     <row r="213" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="134">
+      <c r="A213" s="133">
         <f t="shared" si="3"/>
         <v>212</v>
       </c>
@@ -10912,7 +10989,7 @@
       <c r="K213" s="12"/>
     </row>
     <row r="214" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="134">
+      <c r="A214" s="133">
         <f t="shared" si="3"/>
         <v>213</v>
       </c>
@@ -10944,7 +11021,7 @@
       <c r="K214" s="12"/>
     </row>
     <row r="215" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="134">
+      <c r="A215" s="133">
         <f t="shared" si="3"/>
         <v>214</v>
       </c>
@@ -10976,7 +11053,7 @@
       <c r="K215" s="12"/>
     </row>
     <row r="216" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="134">
+      <c r="A216" s="133">
         <f t="shared" si="3"/>
         <v>215</v>
       </c>
@@ -11006,7 +11083,7 @@
       <c r="K216" s="12"/>
     </row>
     <row r="217" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="134">
+      <c r="A217" s="133">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
@@ -11036,7 +11113,7 @@
       <c r="K217" s="12"/>
     </row>
     <row r="218" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="134">
+      <c r="A218" s="133">
         <f t="shared" ref="A218:A284" si="4">(A217+1)</f>
         <v>217</v>
       </c>
@@ -11066,7 +11143,7 @@
       <c r="K218" s="12"/>
     </row>
     <row r="219" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="134">
+      <c r="A219" s="133">
         <f t="shared" si="4"/>
         <v>218</v>
       </c>
@@ -11098,7 +11175,7 @@
       <c r="K219" s="12"/>
     </row>
     <row r="220" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="134">
+      <c r="A220" s="133">
         <f t="shared" si="4"/>
         <v>219</v>
       </c>
@@ -11130,7 +11207,7 @@
       <c r="K220" s="12"/>
     </row>
     <row r="221" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="134">
+      <c r="A221" s="133">
         <f t="shared" si="4"/>
         <v>220</v>
       </c>
@@ -11162,7 +11239,7 @@
       <c r="K221" s="12"/>
     </row>
     <row r="222" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="134">
+      <c r="A222" s="133">
         <f t="shared" si="4"/>
         <v>221</v>
       </c>
@@ -11192,7 +11269,7 @@
       <c r="K222" s="12"/>
     </row>
     <row r="223" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="134">
+      <c r="A223" s="133">
         <f t="shared" si="4"/>
         <v>222</v>
       </c>
@@ -11224,7 +11301,7 @@
       <c r="K223" s="12"/>
     </row>
     <row r="224" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="134">
+      <c r="A224" s="133">
         <f t="shared" si="4"/>
         <v>223</v>
       </c>
@@ -11256,7 +11333,7 @@
       <c r="K224" s="12"/>
     </row>
     <row r="225" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="134">
+      <c r="A225" s="133">
         <f t="shared" si="4"/>
         <v>224</v>
       </c>
@@ -11286,7 +11363,7 @@
       <c r="K225" s="12"/>
     </row>
     <row r="226" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="134">
+      <c r="A226" s="133">
         <f t="shared" si="4"/>
         <v>225</v>
       </c>
@@ -11316,7 +11393,7 @@
       <c r="K226" s="85"/>
     </row>
     <row r="227" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="134">
+      <c r="A227" s="133">
         <f t="shared" si="4"/>
         <v>226</v>
       </c>
@@ -11361,7 +11438,7 @@
       <c r="Z227" s="92"/>
     </row>
     <row r="228" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="134">
+      <c r="A228" s="133">
         <f t="shared" si="4"/>
         <v>227</v>
       </c>
@@ -11406,7 +11483,7 @@
       <c r="Z228" s="92"/>
     </row>
     <row r="229" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="134">
+      <c r="A229" s="133">
         <f t="shared" si="4"/>
         <v>228</v>
       </c>
@@ -11451,7 +11528,7 @@
       <c r="Z229" s="92"/>
     </row>
     <row r="230" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="134">
+      <c r="A230" s="133">
         <f t="shared" si="4"/>
         <v>229</v>
       </c>
@@ -11496,7 +11573,7 @@
       <c r="Z230" s="92"/>
     </row>
     <row r="231" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="134">
+      <c r="A231" s="133">
         <f t="shared" si="4"/>
         <v>230</v>
       </c>
@@ -11526,7 +11603,7 @@
       <c r="K231" s="85"/>
     </row>
     <row r="232" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="134">
+      <c r="A232" s="133">
         <f t="shared" si="4"/>
         <v>231</v>
       </c>
@@ -11571,7 +11648,7 @@
       <c r="Z232" s="92"/>
     </row>
     <row r="233" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="134">
+      <c r="A233" s="133">
         <f t="shared" si="4"/>
         <v>232</v>
       </c>
@@ -11616,7 +11693,7 @@
       <c r="Z233" s="92"/>
     </row>
     <row r="234" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="134">
+      <c r="A234" s="133">
         <f t="shared" si="4"/>
         <v>233</v>
       </c>
@@ -11661,7 +11738,7 @@
       <c r="Z234" s="92"/>
     </row>
     <row r="235" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="134">
+      <c r="A235" s="133">
         <f t="shared" si="4"/>
         <v>234</v>
       </c>
@@ -11706,7 +11783,7 @@
       <c r="Z235" s="92"/>
     </row>
     <row r="236" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="134">
+      <c r="A236" s="133">
         <f t="shared" si="4"/>
         <v>235</v>
       </c>
@@ -11751,7 +11828,7 @@
       <c r="Z236" s="92"/>
     </row>
     <row r="237" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="134">
+      <c r="A237" s="133">
         <f t="shared" si="4"/>
         <v>236</v>
       </c>
@@ -11783,7 +11860,7 @@
       <c r="K237" s="99"/>
     </row>
     <row r="238" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="134">
+      <c r="A238" s="133">
         <f t="shared" si="4"/>
         <v>237</v>
       </c>
@@ -11815,7 +11892,7 @@
       <c r="K238" s="12"/>
     </row>
     <row r="239" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="134">
+      <c r="A239" s="133">
         <f t="shared" si="4"/>
         <v>238</v>
       </c>
@@ -11847,7 +11924,7 @@
       <c r="K239" s="12"/>
     </row>
     <row r="240" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="134">
+      <c r="A240" s="133">
         <f t="shared" si="4"/>
         <v>239</v>
       </c>
@@ -11879,7 +11956,7 @@
       <c r="K240" s="12"/>
     </row>
     <row r="241" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="134">
+      <c r="A241" s="133">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
@@ -11909,7 +11986,7 @@
       <c r="K241" s="12"/>
     </row>
     <row r="242" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="134">
+      <c r="A242" s="133">
         <f t="shared" si="4"/>
         <v>241</v>
       </c>
@@ -11939,7 +12016,7 @@
       <c r="K242" s="12"/>
     </row>
     <row r="243" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="134">
+      <c r="A243" s="133">
         <f t="shared" si="4"/>
         <v>242</v>
       </c>
@@ -11969,7 +12046,7 @@
       <c r="K243" s="12"/>
     </row>
     <row r="244" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="134">
+      <c r="A244" s="133">
         <f t="shared" si="4"/>
         <v>243</v>
       </c>
@@ -11999,7 +12076,7 @@
       <c r="K244" s="12"/>
     </row>
     <row r="245" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="134">
+      <c r="A245" s="133">
         <f t="shared" si="4"/>
         <v>244</v>
       </c>
@@ -12031,7 +12108,7 @@
       <c r="K245" s="12"/>
     </row>
     <row r="246" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="134">
+      <c r="A246" s="133">
         <f t="shared" si="4"/>
         <v>245</v>
       </c>
@@ -12061,7 +12138,7 @@
       <c r="K246" s="12"/>
     </row>
     <row r="247" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="134">
+      <c r="A247" s="133">
         <f t="shared" si="4"/>
         <v>246</v>
       </c>
@@ -12093,7 +12170,7 @@
       <c r="K247" s="12"/>
     </row>
     <row r="248" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="134">
+      <c r="A248" s="133">
         <f t="shared" si="4"/>
         <v>247</v>
       </c>
@@ -12125,7 +12202,7 @@
       <c r="K248" s="12"/>
     </row>
     <row r="249" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="134">
+      <c r="A249" s="133">
         <f t="shared" si="4"/>
         <v>248</v>
       </c>
@@ -12157,7 +12234,7 @@
       <c r="K249" s="12"/>
     </row>
     <row r="250" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="134">
+      <c r="A250" s="133">
         <f t="shared" si="4"/>
         <v>249</v>
       </c>
@@ -12189,85 +12266,91 @@
       <c r="K250" s="12"/>
     </row>
     <row r="251" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="134">
+      <c r="A251" s="133">
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="B251" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C251" s="124" t="s">
+      <c r="C251" s="123" t="s">
         <v>9</v>
       </c>
       <c r="D251" s="55" t="s">
         <v>399</v>
       </c>
-      <c r="E251" s="129" t="s">
+      <c r="E251" s="128" t="s">
         <v>886</v>
       </c>
       <c r="F251" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="G251" s="129"/>
-      <c r="H251" s="129"/>
-      <c r="I251" s="130"/>
+      <c r="G251" s="128" t="s">
+        <v>890</v>
+      </c>
+      <c r="H251" s="128"/>
+      <c r="I251" s="129"/>
       <c r="J251" s="11"/>
       <c r="K251" s="12"/>
     </row>
     <row r="252" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="134">
+      <c r="A252" s="133">
         <f t="shared" si="4"/>
         <v>251</v>
       </c>
       <c r="B252" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C252" s="124" t="s">
+      <c r="C252" s="123" t="s">
         <v>78</v>
       </c>
       <c r="D252" s="55" t="s">
         <v>399</v>
       </c>
-      <c r="E252" s="128" t="s">
+      <c r="E252" s="127" t="s">
         <v>887</v>
       </c>
       <c r="F252" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="G252" s="129"/>
-      <c r="H252" s="129"/>
-      <c r="I252" s="130"/>
+      <c r="G252" s="128" t="s">
+        <v>891</v>
+      </c>
+      <c r="H252" s="128"/>
+      <c r="I252" s="129"/>
       <c r="J252" s="11"/>
       <c r="K252" s="12"/>
     </row>
     <row r="253" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="134">
+      <c r="A253" s="133">
         <f t="shared" si="4"/>
         <v>252</v>
       </c>
       <c r="B253" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C253" s="124" t="s">
+      <c r="C253" s="123" t="s">
         <v>9</v>
       </c>
       <c r="D253" s="55" t="s">
         <v>399</v>
       </c>
-      <c r="E253" s="129" t="s">
+      <c r="E253" s="128" t="s">
         <v>888</v>
       </c>
       <c r="F253" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="G253" s="129"/>
-      <c r="H253" s="129"/>
-      <c r="I253" s="130"/>
+      <c r="G253" s="128" t="s">
+        <v>892</v>
+      </c>
+      <c r="H253" s="128"/>
+      <c r="I253" s="129"/>
       <c r="J253" s="11"/>
       <c r="K253" s="12"/>
     </row>
     <row r="254" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="134">
+      <c r="A254" s="133">
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
@@ -12299,7 +12382,7 @@
       <c r="K254" s="12"/>
     </row>
     <row r="255" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="134">
+      <c r="A255" s="133">
         <f t="shared" si="4"/>
         <v>254</v>
       </c>
@@ -12331,7 +12414,7 @@
       <c r="K255" s="12"/>
     </row>
     <row r="256" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="134">
+      <c r="A256" s="133">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
@@ -12361,7 +12444,7 @@
       <c r="K256" s="12"/>
     </row>
     <row r="257" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="134">
+      <c r="A257" s="133">
         <f t="shared" si="4"/>
         <v>256</v>
       </c>
@@ -12391,7 +12474,7 @@
       <c r="K257" s="12"/>
     </row>
     <row r="258" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="134">
+      <c r="A258" s="133">
         <f t="shared" si="4"/>
         <v>257</v>
       </c>
@@ -12421,7 +12504,7 @@
       <c r="K258" s="12"/>
     </row>
     <row r="259" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="134">
+      <c r="A259" s="133">
         <f t="shared" si="4"/>
         <v>258</v>
       </c>
@@ -12451,7 +12534,7 @@
       <c r="K259" s="12"/>
     </row>
     <row r="260" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="134">
+      <c r="A260" s="133">
         <f t="shared" si="4"/>
         <v>259</v>
       </c>
@@ -12483,7 +12566,7 @@
       <c r="K260" s="12"/>
     </row>
     <row r="261" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="134">
+      <c r="A261" s="133">
         <f t="shared" si="4"/>
         <v>260</v>
       </c>
@@ -12515,7 +12598,7 @@
       <c r="K261" s="12"/>
     </row>
     <row r="262" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="134">
+      <c r="A262" s="133">
         <f t="shared" si="4"/>
         <v>261</v>
       </c>
@@ -12545,7 +12628,7 @@
       <c r="K262" s="12"/>
     </row>
     <row r="263" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="134">
+      <c r="A263" s="133">
         <f t="shared" si="4"/>
         <v>262</v>
       </c>
@@ -12577,7 +12660,7 @@
       <c r="K263" s="12"/>
     </row>
     <row r="264" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="134">
+      <c r="A264" s="133">
         <f t="shared" si="4"/>
         <v>263</v>
       </c>
@@ -12607,7 +12690,7 @@
       <c r="K264" s="12"/>
     </row>
     <row r="265" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="134">
+      <c r="A265" s="133">
         <f t="shared" si="4"/>
         <v>264</v>
       </c>
@@ -12637,7 +12720,7 @@
       <c r="K265" s="12"/>
     </row>
     <row r="266" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="134">
+      <c r="A266" s="133">
         <f t="shared" si="4"/>
         <v>265</v>
       </c>
@@ -12667,7 +12750,7 @@
       <c r="K266" s="12"/>
     </row>
     <row r="267" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="134">
+      <c r="A267" s="133">
         <f t="shared" si="4"/>
         <v>266</v>
       </c>
@@ -12697,7 +12780,7 @@
       <c r="K267" s="12"/>
     </row>
     <row r="268" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="134">
+      <c r="A268" s="133">
         <f t="shared" si="4"/>
         <v>267</v>
       </c>
@@ -12727,7 +12810,7 @@
       <c r="K268" s="12"/>
     </row>
     <row r="269" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="134">
+      <c r="A269" s="133">
         <f t="shared" si="4"/>
         <v>268</v>
       </c>
@@ -12757,7 +12840,7 @@
       <c r="K269" s="12"/>
     </row>
     <row r="270" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="134">
+      <c r="A270" s="133">
         <f t="shared" si="4"/>
         <v>269</v>
       </c>
@@ -12787,7 +12870,7 @@
       <c r="K270" s="12"/>
     </row>
     <row r="271" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="134">
+      <c r="A271" s="133">
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
@@ -12819,7 +12902,7 @@
       <c r="K271" s="12"/>
     </row>
     <row r="272" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="134">
+      <c r="A272" s="133">
         <f t="shared" si="4"/>
         <v>271</v>
       </c>
@@ -12851,7 +12934,7 @@
       <c r="K272" s="12"/>
     </row>
     <row r="273" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="134">
+      <c r="A273" s="133">
         <f t="shared" si="4"/>
         <v>272</v>
       </c>
@@ -12883,7 +12966,7 @@
       <c r="K273" s="12"/>
     </row>
     <row r="274" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="134">
+      <c r="A274" s="133">
         <f t="shared" si="4"/>
         <v>273</v>
       </c>
@@ -12913,7 +12996,7 @@
       <c r="K274" s="12"/>
     </row>
     <row r="275" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="134">
+      <c r="A275" s="133">
         <f t="shared" si="4"/>
         <v>274</v>
       </c>
@@ -12943,7 +13026,7 @@
       <c r="K275" s="12"/>
     </row>
     <row r="276" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A276" s="134">
+      <c r="A276" s="133">
         <f t="shared" si="4"/>
         <v>275</v>
       </c>
@@ -12973,7 +13056,7 @@
       <c r="K276" s="12"/>
     </row>
     <row r="277" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="134">
+      <c r="A277" s="133">
         <f t="shared" si="4"/>
         <v>276</v>
       </c>
@@ -13003,7 +13086,7 @@
       <c r="K277" s="12"/>
     </row>
     <row r="278" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="134">
+      <c r="A278" s="133">
         <f t="shared" si="4"/>
         <v>277</v>
       </c>
@@ -13033,7 +13116,7 @@
       <c r="K278" s="12"/>
     </row>
     <row r="279" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="134">
+      <c r="A279" s="133">
         <f t="shared" si="4"/>
         <v>278</v>
       </c>
@@ -13063,7 +13146,7 @@
       <c r="K279" s="12"/>
     </row>
     <row r="280" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="134">
+      <c r="A280" s="133">
         <f t="shared" si="4"/>
         <v>279</v>
       </c>
@@ -13093,7 +13176,7 @@
       <c r="K280" s="12"/>
     </row>
     <row r="281" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="134">
+      <c r="A281" s="133">
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
@@ -13125,7 +13208,7 @@
       <c r="K281" s="12"/>
     </row>
     <row r="282" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="134">
+      <c r="A282" s="133">
         <f t="shared" si="4"/>
         <v>281</v>
       </c>
@@ -13157,7 +13240,7 @@
       <c r="K282" s="12"/>
     </row>
     <row r="283" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="134">
+      <c r="A283" s="133">
         <f t="shared" si="4"/>
         <v>282</v>
       </c>
@@ -13187,7 +13270,7 @@
       <c r="K283" s="12"/>
     </row>
     <row r="284" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="134">
+      <c r="A284" s="133">
         <f t="shared" si="4"/>
         <v>283</v>
       </c>
@@ -13219,7 +13302,7 @@
       <c r="K284" s="12"/>
     </row>
     <row r="285" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="134">
+      <c r="A285" s="133">
         <f t="shared" ref="A285:A348" si="5">(A284+1)</f>
         <v>284</v>
       </c>
@@ -13251,7 +13334,7 @@
       <c r="K285" s="12"/>
     </row>
     <row r="286" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="134">
+      <c r="A286" s="133">
         <f t="shared" si="5"/>
         <v>285</v>
       </c>
@@ -13283,7 +13366,7 @@
       <c r="K286" s="12"/>
     </row>
     <row r="287" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="134">
+      <c r="A287" s="133">
         <f t="shared" si="5"/>
         <v>286</v>
       </c>
@@ -13315,7 +13398,7 @@
       <c r="K287" s="12"/>
     </row>
     <row r="288" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="134">
+      <c r="A288" s="133">
         <f t="shared" si="5"/>
         <v>287</v>
       </c>
@@ -13345,7 +13428,7 @@
       <c r="K288" s="12"/>
     </row>
     <row r="289" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="134">
+      <c r="A289" s="133">
         <f t="shared" si="5"/>
         <v>288</v>
       </c>
@@ -13377,7 +13460,7 @@
       <c r="K289" s="12"/>
     </row>
     <row r="290" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="134">
+      <c r="A290" s="133">
         <f t="shared" si="5"/>
         <v>289</v>
       </c>
@@ -13409,7 +13492,7 @@
       <c r="K290" s="12"/>
     </row>
     <row r="291" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="134">
+      <c r="A291" s="133">
         <f t="shared" si="5"/>
         <v>290</v>
       </c>
@@ -13441,7 +13524,7 @@
       <c r="K291" s="12"/>
     </row>
     <row r="292" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="134">
+      <c r="A292" s="133">
         <f t="shared" si="5"/>
         <v>291</v>
       </c>
@@ -13471,7 +13554,7 @@
       <c r="K292" s="12"/>
     </row>
     <row r="293" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="134">
+      <c r="A293" s="133">
         <f t="shared" si="5"/>
         <v>292</v>
       </c>
@@ -13501,7 +13584,7 @@
       <c r="K293" s="12"/>
     </row>
     <row r="294" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="134">
+      <c r="A294" s="133">
         <f t="shared" si="5"/>
         <v>293</v>
       </c>
@@ -13531,7 +13614,7 @@
       <c r="K294" s="12"/>
     </row>
     <row r="295" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="134">
+      <c r="A295" s="133">
         <f t="shared" si="5"/>
         <v>294</v>
       </c>
@@ -13561,7 +13644,7 @@
       <c r="K295" s="12"/>
     </row>
     <row r="296" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="134">
+      <c r="A296" s="133">
         <f t="shared" si="5"/>
         <v>295</v>
       </c>
@@ -13593,7 +13676,7 @@
       <c r="K296" s="12"/>
     </row>
     <row r="297" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="134">
+      <c r="A297" s="133">
         <f t="shared" si="5"/>
         <v>296</v>
       </c>
@@ -13625,7 +13708,7 @@
       <c r="K297" s="12"/>
     </row>
     <row r="298" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="134">
+      <c r="A298" s="133">
         <f t="shared" si="5"/>
         <v>297</v>
       </c>
@@ -13657,7 +13740,7 @@
       <c r="K298" s="12"/>
     </row>
     <row r="299" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="134">
+      <c r="A299" s="133">
         <f t="shared" si="5"/>
         <v>298</v>
       </c>
@@ -13687,7 +13770,7 @@
       <c r="K299" s="12"/>
     </row>
     <row r="300" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="134">
+      <c r="A300" s="133">
         <f t="shared" si="5"/>
         <v>299</v>
       </c>
@@ -13717,7 +13800,7 @@
       <c r="K300" s="12"/>
     </row>
     <row r="301" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="134">
+      <c r="A301" s="133">
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
@@ -13749,7 +13832,7 @@
       <c r="K301" s="12"/>
     </row>
     <row r="302" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="134">
+      <c r="A302" s="133">
         <f t="shared" si="5"/>
         <v>301</v>
       </c>
@@ -13779,7 +13862,7 @@
       <c r="K302" s="12"/>
     </row>
     <row r="303" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="134">
+      <c r="A303" s="133">
         <f t="shared" si="5"/>
         <v>302</v>
       </c>
@@ -13809,7 +13892,7 @@
       <c r="K303" s="12"/>
     </row>
     <row r="304" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="134">
+      <c r="A304" s="133">
         <f t="shared" si="5"/>
         <v>303</v>
       </c>
@@ -13839,7 +13922,7 @@
       <c r="K304" s="12"/>
     </row>
     <row r="305" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="134">
+      <c r="A305" s="133">
         <f t="shared" si="5"/>
         <v>304</v>
       </c>
@@ -13869,7 +13952,7 @@
       <c r="K305" s="12"/>
     </row>
     <row r="306" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="134">
+      <c r="A306" s="133">
         <f t="shared" si="5"/>
         <v>305</v>
       </c>
@@ -13899,7 +13982,7 @@
       <c r="K306" s="12"/>
     </row>
     <row r="307" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="134">
+      <c r="A307" s="133">
         <f t="shared" si="5"/>
         <v>306</v>
       </c>
@@ -13929,7 +14012,7 @@
       <c r="K307" s="12"/>
     </row>
     <row r="308" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="134">
+      <c r="A308" s="133">
         <f t="shared" si="5"/>
         <v>307</v>
       </c>
@@ -13959,7 +14042,7 @@
       <c r="K308" s="12"/>
     </row>
     <row r="309" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="134">
+      <c r="A309" s="133">
         <f t="shared" si="5"/>
         <v>308</v>
       </c>
@@ -13989,7 +14072,7 @@
       <c r="K309" s="12"/>
     </row>
     <row r="310" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="134">
+      <c r="A310" s="133">
         <f t="shared" si="5"/>
         <v>309</v>
       </c>
@@ -14019,7 +14102,7 @@
       <c r="K310" s="12"/>
     </row>
     <row r="311" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="134">
+      <c r="A311" s="133">
         <f t="shared" si="5"/>
         <v>310</v>
       </c>
@@ -14049,7 +14132,7 @@
       <c r="K311" s="12"/>
     </row>
     <row r="312" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="134">
+      <c r="A312" s="133">
         <f t="shared" si="5"/>
         <v>311</v>
       </c>
@@ -14079,7 +14162,7 @@
       <c r="K312" s="12"/>
     </row>
     <row r="313" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="134">
+      <c r="A313" s="133">
         <f t="shared" si="5"/>
         <v>312</v>
       </c>
@@ -14105,7 +14188,7 @@
       <c r="K313" s="12"/>
     </row>
     <row r="314" spans="1:11" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="135">
+      <c r="A314" s="134">
         <f t="shared" si="5"/>
         <v>313</v>
       </c>
@@ -14121,19 +14204,19 @@
       <c r="E314" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="F314" s="27" t="s">
+      <c r="F314" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="G314" s="27" t="s">
-        <v>889</v>
-      </c>
-      <c r="H314" s="27"/>
+      <c r="G314" s="144" t="s">
+        <v>152</v>
+      </c>
+      <c r="H314" s="108"/>
       <c r="I314" s="27"/>
       <c r="J314" s="106"/>
       <c r="K314" s="46"/>
     </row>
     <row r="315" spans="1:11" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="135">
+      <c r="A315" s="134">
         <f t="shared" si="5"/>
         <v>314</v>
       </c>
@@ -14149,17 +14232,19 @@
       <c r="E315" s="107" t="s">
         <v>413</v>
       </c>
-      <c r="F315" s="108" t="s">
+      <c r="F315" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="G315" s="27"/>
-      <c r="H315" s="27"/>
+      <c r="G315" s="145" t="s">
+        <v>893</v>
+      </c>
+      <c r="H315" s="108"/>
       <c r="I315" s="27"/>
       <c r="J315" s="106"/>
       <c r="K315" s="46"/>
     </row>
     <row r="316" spans="1:11" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="135">
+      <c r="A316" s="134">
         <f t="shared" si="5"/>
         <v>315</v>
       </c>
@@ -14175,17 +14260,19 @@
       <c r="E316" s="107" t="s">
         <v>470</v>
       </c>
-      <c r="F316" s="108" t="s">
+      <c r="F316" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="G316" s="27"/>
-      <c r="H316" s="27"/>
+      <c r="G316" s="145" t="s">
+        <v>894</v>
+      </c>
+      <c r="H316" s="108"/>
       <c r="I316" s="27"/>
       <c r="J316" s="106"/>
       <c r="K316" s="46"/>
     </row>
     <row r="317" spans="1:11" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="135">
+      <c r="A317" s="134">
         <f t="shared" si="5"/>
         <v>316</v>
       </c>
@@ -14201,17 +14288,19 @@
       <c r="E317" s="107" t="s">
         <v>430</v>
       </c>
-      <c r="F317" s="108" t="s">
+      <c r="F317" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="G317" s="27"/>
-      <c r="H317" s="27"/>
+      <c r="G317" s="145" t="s">
+        <v>895</v>
+      </c>
+      <c r="H317" s="108"/>
       <c r="I317" s="27"/>
       <c r="J317" s="106"/>
       <c r="K317" s="46"/>
     </row>
-    <row r="318" spans="1:11" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="135">
+    <row r="318" spans="1:11" s="47" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A318" s="134">
         <f t="shared" si="5"/>
         <v>317</v>
       </c>
@@ -14227,24 +14316,26 @@
       <c r="E318" s="104" t="s">
         <v>476</v>
       </c>
-      <c r="F318" s="27" t="s">
+      <c r="F318" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="G318" s="27"/>
-      <c r="H318" s="27"/>
+      <c r="G318" s="146" t="s">
+        <v>896</v>
+      </c>
+      <c r="H318" s="108"/>
       <c r="I318" s="27"/>
       <c r="J318" s="106"/>
       <c r="K318" s="46"/>
     </row>
-    <row r="319" spans="1:11" s="47" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="135">
+    <row r="319" spans="1:11" s="47" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A319" s="134">
         <f t="shared" si="5"/>
         <v>318</v>
       </c>
       <c r="B319" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="C319" s="113" t="s">
+      <c r="C319" s="147" t="s">
         <v>91</v>
       </c>
       <c r="D319" s="104" t="s">
@@ -14253,17 +14344,19 @@
       <c r="E319" s="107" t="s">
         <v>478</v>
       </c>
-      <c r="F319" s="108" t="s">
+      <c r="F319" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="G319" s="27"/>
-      <c r="H319" s="27"/>
+      <c r="G319" s="146" t="s">
+        <v>897</v>
+      </c>
+      <c r="H319" s="108"/>
       <c r="I319" s="27"/>
       <c r="J319" s="106"/>
       <c r="K319" s="46"/>
     </row>
     <row r="320" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="134">
+      <c r="A320" s="133">
         <f t="shared" si="5"/>
         <v>319</v>
       </c>
@@ -14295,7 +14388,7 @@
       <c r="K320" s="12"/>
     </row>
     <row r="321" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="134">
+      <c r="A321" s="133">
         <f t="shared" si="5"/>
         <v>320</v>
       </c>
@@ -14327,7 +14420,7 @@
       <c r="K321" s="12"/>
     </row>
     <row r="322" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="134">
+      <c r="A322" s="133">
         <f t="shared" si="5"/>
         <v>321</v>
       </c>
@@ -14357,7 +14450,7 @@
       <c r="K322" s="12"/>
     </row>
     <row r="323" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="134">
+      <c r="A323" s="133">
         <f t="shared" si="5"/>
         <v>322</v>
       </c>
@@ -14387,7 +14480,7 @@
       <c r="K323" s="12"/>
     </row>
     <row r="324" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="134">
+      <c r="A324" s="133">
         <f t="shared" si="5"/>
         <v>323</v>
       </c>
@@ -14417,7 +14510,7 @@
       <c r="K324" s="12"/>
     </row>
     <row r="325" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="134">
+      <c r="A325" s="133">
         <f t="shared" si="5"/>
         <v>324</v>
       </c>
@@ -14447,7 +14540,7 @@
       <c r="K325" s="12"/>
     </row>
     <row r="326" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="134">
+      <c r="A326" s="133">
         <f t="shared" si="5"/>
         <v>325</v>
       </c>
@@ -14477,7 +14570,7 @@
       <c r="K326" s="12"/>
     </row>
     <row r="327" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="134">
+      <c r="A327" s="133">
         <f t="shared" si="5"/>
         <v>326</v>
       </c>
@@ -14509,7 +14602,7 @@
       <c r="K327" s="12"/>
     </row>
     <row r="328" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A328" s="134">
+      <c r="A328" s="133">
         <f t="shared" si="5"/>
         <v>327</v>
       </c>
@@ -14541,7 +14634,7 @@
       <c r="K328" s="12"/>
     </row>
     <row r="329" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A329" s="134">
+      <c r="A329" s="133">
         <f t="shared" si="5"/>
         <v>328</v>
       </c>
@@ -14571,7 +14664,7 @@
       <c r="K329" s="12"/>
     </row>
     <row r="330" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A330" s="134">
+      <c r="A330" s="133">
         <f t="shared" si="5"/>
         <v>329</v>
       </c>
@@ -14601,7 +14694,7 @@
       <c r="K330" s="12"/>
     </row>
     <row r="331" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A331" s="134">
+      <c r="A331" s="133">
         <f t="shared" si="5"/>
         <v>330</v>
       </c>
@@ -14631,7 +14724,7 @@
       <c r="K331" s="12"/>
     </row>
     <row r="332" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="134">
+      <c r="A332" s="133">
         <f t="shared" si="5"/>
         <v>331</v>
       </c>
@@ -14661,7 +14754,7 @@
       <c r="K332" s="12"/>
     </row>
     <row r="333" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A333" s="134">
+      <c r="A333" s="133">
         <f t="shared" si="5"/>
         <v>332</v>
       </c>
@@ -14693,7 +14786,7 @@
       <c r="K333" s="12"/>
     </row>
     <row r="334" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A334" s="134">
+      <c r="A334" s="133">
         <f t="shared" si="5"/>
         <v>333</v>
       </c>
@@ -14725,7 +14818,7 @@
       <c r="K334" s="12"/>
     </row>
     <row r="335" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="134">
+      <c r="A335" s="133">
         <f t="shared" si="5"/>
         <v>334</v>
       </c>
@@ -14757,7 +14850,7 @@
       <c r="K335" s="12"/>
     </row>
     <row r="336" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="134">
+      <c r="A336" s="133">
         <f t="shared" si="5"/>
         <v>335</v>
       </c>
@@ -14789,7 +14882,7 @@
       <c r="K336" s="12"/>
     </row>
     <row r="337" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="134">
+      <c r="A337" s="133">
         <f t="shared" si="5"/>
         <v>336</v>
       </c>
@@ -14819,7 +14912,7 @@
       <c r="K337" s="12"/>
     </row>
     <row r="338" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="134">
+      <c r="A338" s="133">
         <f t="shared" si="5"/>
         <v>337</v>
       </c>
@@ -14851,7 +14944,7 @@
       <c r="K338" s="12"/>
     </row>
     <row r="339" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="134">
+      <c r="A339" s="133">
         <f t="shared" si="5"/>
         <v>338</v>
       </c>
@@ -14883,7 +14976,7 @@
       <c r="K339" s="12"/>
     </row>
     <row r="340" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A340" s="134">
+      <c r="A340" s="133">
         <f t="shared" si="5"/>
         <v>339</v>
       </c>
@@ -14915,7 +15008,7 @@
       <c r="K340" s="12"/>
     </row>
     <row r="341" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A341" s="134">
+      <c r="A341" s="133">
         <f t="shared" si="5"/>
         <v>340</v>
       </c>
@@ -14945,7 +15038,7 @@
       <c r="K341" s="12"/>
     </row>
     <row r="342" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A342" s="134">
+      <c r="A342" s="133">
         <f t="shared" si="5"/>
         <v>341</v>
       </c>
@@ -14975,7 +15068,7 @@
       <c r="K342" s="12"/>
     </row>
     <row r="343" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A343" s="134">
+      <c r="A343" s="133">
         <f t="shared" si="5"/>
         <v>342</v>
       </c>
@@ -15005,7 +15098,7 @@
       <c r="K343" s="12"/>
     </row>
     <row r="344" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A344" s="134">
+      <c r="A344" s="133">
         <f t="shared" si="5"/>
         <v>343</v>
       </c>
@@ -15035,7 +15128,7 @@
       <c r="K344" s="12"/>
     </row>
     <row r="345" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A345" s="134">
+      <c r="A345" s="133">
         <f t="shared" si="5"/>
         <v>344</v>
       </c>
@@ -15065,7 +15158,7 @@
       <c r="K345" s="12"/>
     </row>
     <row r="346" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A346" s="134">
+      <c r="A346" s="133">
         <f t="shared" si="5"/>
         <v>345</v>
       </c>
@@ -15095,7 +15188,7 @@
       <c r="K346" s="12"/>
     </row>
     <row r="347" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A347" s="134">
+      <c r="A347" s="133">
         <f t="shared" si="5"/>
         <v>346</v>
       </c>
@@ -15127,7 +15220,7 @@
       <c r="K347" s="12"/>
     </row>
     <row r="348" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A348" s="134">
+      <c r="A348" s="133">
         <f t="shared" si="5"/>
         <v>347</v>
       </c>
@@ -15159,7 +15252,7 @@
       <c r="K348" s="12"/>
     </row>
     <row r="349" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A349" s="134">
+      <c r="A349" s="133">
         <f t="shared" ref="A349:A367" si="6">(A348+1)</f>
         <v>348</v>
       </c>
@@ -15189,7 +15282,7 @@
       <c r="K349" s="12"/>
     </row>
     <row r="350" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A350" s="134">
+      <c r="A350" s="133">
         <f t="shared" si="6"/>
         <v>349</v>
       </c>
@@ -15219,7 +15312,7 @@
       <c r="K350" s="12"/>
     </row>
     <row r="351" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A351" s="134">
+      <c r="A351" s="133">
         <f t="shared" si="6"/>
         <v>350</v>
       </c>
@@ -15249,7 +15342,7 @@
       <c r="K351" s="12"/>
     </row>
     <row r="352" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A352" s="134">
+      <c r="A352" s="133">
         <f t="shared" si="6"/>
         <v>351</v>
       </c>
@@ -15279,7 +15372,7 @@
       <c r="K352" s="12"/>
     </row>
     <row r="353" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A353" s="134">
+      <c r="A353" s="133">
         <f t="shared" si="6"/>
         <v>352</v>
       </c>
@@ -15309,7 +15402,7 @@
       <c r="K353" s="12"/>
     </row>
     <row r="354" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A354" s="134">
+      <c r="A354" s="133">
         <f t="shared" si="6"/>
         <v>353</v>
       </c>
@@ -15339,7 +15432,7 @@
       <c r="K354" s="12"/>
     </row>
     <row r="355" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A355" s="134">
+      <c r="A355" s="133">
         <f t="shared" si="6"/>
         <v>354</v>
       </c>
@@ -15369,7 +15462,7 @@
       <c r="K355" s="12"/>
     </row>
     <row r="356" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A356" s="134">
+      <c r="A356" s="133">
         <f t="shared" si="6"/>
         <v>355</v>
       </c>
@@ -15399,7 +15492,7 @@
       <c r="K356" s="12"/>
     </row>
     <row r="357" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="134">
+      <c r="A357" s="133">
         <f t="shared" si="6"/>
         <v>356</v>
       </c>
@@ -15429,7 +15522,7 @@
       <c r="K357" s="12"/>
     </row>
     <row r="358" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="134">
+      <c r="A358" s="133">
         <f t="shared" si="6"/>
         <v>357</v>
       </c>
@@ -15457,7 +15550,7 @@
       <c r="K358" s="12"/>
     </row>
     <row r="359" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="134">
+      <c r="A359" s="133">
         <f t="shared" si="6"/>
         <v>358</v>
       </c>
@@ -15485,7 +15578,7 @@
       <c r="K359" s="12"/>
     </row>
     <row r="360" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="134">
+      <c r="A360" s="133">
         <f t="shared" si="6"/>
         <v>359</v>
       </c>
@@ -15517,7 +15610,7 @@
       <c r="K360" s="12"/>
     </row>
     <row r="361" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A361" s="134">
+      <c r="A361" s="133">
         <f t="shared" si="6"/>
         <v>360</v>
       </c>
@@ -15549,7 +15642,7 @@
       <c r="K361" s="12"/>
     </row>
     <row r="362" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A362" s="134">
+      <c r="A362" s="133">
         <f t="shared" si="6"/>
         <v>361</v>
       </c>
@@ -15581,7 +15674,7 @@
       <c r="K362" s="12"/>
     </row>
     <row r="363" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="134">
+      <c r="A363" s="133">
         <f t="shared" si="6"/>
         <v>362</v>
       </c>
@@ -15613,7 +15706,7 @@
       <c r="K363" s="12"/>
     </row>
     <row r="364" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="134">
+      <c r="A364" s="133">
         <f t="shared" si="6"/>
         <v>363</v>
       </c>
@@ -15643,7 +15736,7 @@
       <c r="K364" s="12"/>
     </row>
     <row r="365" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="134">
+      <c r="A365" s="133">
         <f t="shared" si="6"/>
         <v>364</v>
       </c>
@@ -15673,7 +15766,7 @@
       <c r="K365" s="12"/>
     </row>
     <row r="366" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="134">
+      <c r="A366" s="133">
         <f t="shared" si="6"/>
         <v>365</v>
       </c>
@@ -15703,7 +15796,7 @@
       <c r="K366" s="12"/>
     </row>
     <row r="367" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="134">
+      <c r="A367" s="133">
         <f t="shared" si="6"/>
         <v>366</v>
       </c>
@@ -15735,7 +15828,7 @@
       <c r="K367" s="12"/>
     </row>
     <row r="368" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="134">
+      <c r="A368" s="133">
         <f t="shared" ref="A368:A405" si="7">(A367+1)</f>
         <v>367</v>
       </c>
@@ -15765,7 +15858,7 @@
       <c r="K368" s="12"/>
     </row>
     <row r="369" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="134">
+      <c r="A369" s="133">
         <f t="shared" si="7"/>
         <v>368</v>
       </c>
@@ -15795,7 +15888,7 @@
       <c r="K369" s="12"/>
     </row>
     <row r="370" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="134">
+      <c r="A370" s="133">
         <f t="shared" si="7"/>
         <v>369</v>
       </c>
@@ -15825,7 +15918,7 @@
       <c r="K370" s="12"/>
     </row>
     <row r="371" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A371" s="134">
+      <c r="A371" s="133">
         <f t="shared" si="7"/>
         <v>370</v>
       </c>
@@ -15857,7 +15950,7 @@
       <c r="K371" s="12"/>
     </row>
     <row r="372" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="134">
+      <c r="A372" s="133">
         <f t="shared" si="7"/>
         <v>371</v>
       </c>
@@ -15889,7 +15982,7 @@
       <c r="K372" s="12"/>
     </row>
     <row r="373" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="134">
+      <c r="A373" s="133">
         <f t="shared" si="7"/>
         <v>372</v>
       </c>
@@ -15919,7 +16012,7 @@
       <c r="K373" s="12"/>
     </row>
     <row r="374" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="134">
+      <c r="A374" s="133">
         <f t="shared" si="7"/>
         <v>373</v>
       </c>
@@ -15951,7 +16044,7 @@
       <c r="K374" s="12"/>
     </row>
     <row r="375" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="134">
+      <c r="A375" s="133">
         <f t="shared" si="7"/>
         <v>374</v>
       </c>
@@ -15981,7 +16074,7 @@
       <c r="K375" s="12"/>
     </row>
     <row r="376" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="134">
+      <c r="A376" s="133">
         <f t="shared" si="7"/>
         <v>375</v>
       </c>
@@ -16013,7 +16106,7 @@
       <c r="K376" s="12"/>
     </row>
     <row r="377" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="134">
+      <c r="A377" s="133">
         <f t="shared" si="7"/>
         <v>376</v>
       </c>
@@ -16045,7 +16138,7 @@
       <c r="K377" s="12"/>
     </row>
     <row r="378" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="134">
+      <c r="A378" s="133">
         <f t="shared" si="7"/>
         <v>377</v>
       </c>
@@ -16075,7 +16168,7 @@
       <c r="K378" s="12"/>
     </row>
     <row r="379" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="134">
+      <c r="A379" s="133">
         <f t="shared" si="7"/>
         <v>378</v>
       </c>
@@ -16107,7 +16200,7 @@
       <c r="K379" s="12"/>
     </row>
     <row r="380" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="134">
+      <c r="A380" s="133">
         <f t="shared" si="7"/>
         <v>379</v>
       </c>
@@ -16139,7 +16232,7 @@
       <c r="K380" s="12"/>
     </row>
     <row r="381" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="134">
+      <c r="A381" s="133">
         <f t="shared" si="7"/>
         <v>380</v>
       </c>
@@ -16171,7 +16264,7 @@
       <c r="K381" s="12"/>
     </row>
     <row r="382" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="134">
+      <c r="A382" s="133">
         <f t="shared" si="7"/>
         <v>381</v>
       </c>
@@ -16203,7 +16296,7 @@
       <c r="K382" s="12"/>
     </row>
     <row r="383" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="134">
+      <c r="A383" s="133">
         <f t="shared" si="7"/>
         <v>382</v>
       </c>
@@ -16233,7 +16326,7 @@
       <c r="K383" s="12"/>
     </row>
     <row r="384" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="134">
+      <c r="A384" s="133">
         <f t="shared" si="7"/>
         <v>383</v>
       </c>
@@ -16263,7 +16356,7 @@
       <c r="K384" s="12"/>
     </row>
     <row r="385" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="134">
+      <c r="A385" s="133">
         <f t="shared" si="7"/>
         <v>384</v>
       </c>
@@ -16293,7 +16386,7 @@
       <c r="K385" s="12"/>
     </row>
     <row r="386" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="134">
+      <c r="A386" s="133">
         <f t="shared" si="7"/>
         <v>385</v>
       </c>
@@ -16323,7 +16416,7 @@
       <c r="K386" s="12"/>
     </row>
     <row r="387" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A387" s="134">
+      <c r="A387" s="133">
         <f t="shared" si="7"/>
         <v>386</v>
       </c>
@@ -16355,7 +16448,7 @@
       <c r="K387" s="12"/>
     </row>
     <row r="388" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A388" s="134">
+      <c r="A388" s="133">
         <f t="shared" si="7"/>
         <v>387</v>
       </c>
@@ -16387,7 +16480,7 @@
       <c r="K388" s="12"/>
     </row>
     <row r="389" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A389" s="134">
+      <c r="A389" s="133">
         <f t="shared" si="7"/>
         <v>388</v>
       </c>
@@ -16417,7 +16510,7 @@
       <c r="K389" s="12"/>
     </row>
     <row r="390" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="134">
+      <c r="A390" s="133">
         <f t="shared" si="7"/>
         <v>389</v>
       </c>
@@ -16447,7 +16540,7 @@
       <c r="K390" s="12"/>
     </row>
     <row r="391" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A391" s="134">
+      <c r="A391" s="133">
         <f t="shared" si="7"/>
         <v>390</v>
       </c>
@@ -16479,7 +16572,7 @@
       <c r="K391" s="12"/>
     </row>
     <row r="392" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A392" s="134">
+      <c r="A392" s="133">
         <f t="shared" si="7"/>
         <v>391</v>
       </c>
@@ -16511,7 +16604,7 @@
       <c r="K392" s="12"/>
     </row>
     <row r="393" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A393" s="134">
+      <c r="A393" s="133">
         <f t="shared" si="7"/>
         <v>392</v>
       </c>
@@ -16543,7 +16636,7 @@
       <c r="K393" s="12"/>
     </row>
     <row r="394" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A394" s="134">
+      <c r="A394" s="133">
         <f t="shared" si="7"/>
         <v>393</v>
       </c>
@@ -16573,7 +16666,7 @@
       <c r="K394" s="12"/>
     </row>
     <row r="395" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A395" s="134">
+      <c r="A395" s="133">
         <f t="shared" si="7"/>
         <v>394</v>
       </c>
@@ -16603,7 +16696,7 @@
       <c r="K395" s="12"/>
     </row>
     <row r="396" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A396" s="134">
+      <c r="A396" s="133">
         <f t="shared" si="7"/>
         <v>395</v>
       </c>
@@ -16633,7 +16726,7 @@
       <c r="K396" s="12"/>
     </row>
     <row r="397" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A397" s="134">
+      <c r="A397" s="133">
         <f t="shared" si="7"/>
         <v>396</v>
       </c>
@@ -16663,7 +16756,7 @@
       <c r="K397" s="12"/>
     </row>
     <row r="398" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A398" s="134">
+      <c r="A398" s="133">
         <f t="shared" si="7"/>
         <v>397</v>
       </c>
@@ -16693,7 +16786,7 @@
       <c r="K398" s="12"/>
     </row>
     <row r="399" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A399" s="134">
+      <c r="A399" s="133">
         <f t="shared" si="7"/>
         <v>398</v>
       </c>
@@ -16725,7 +16818,7 @@
       <c r="K399" s="12"/>
     </row>
     <row r="400" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A400" s="134">
+      <c r="A400" s="133">
         <f t="shared" si="7"/>
         <v>399</v>
       </c>
@@ -16757,7 +16850,7 @@
       <c r="K400" s="12"/>
     </row>
     <row r="401" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A401" s="134">
+      <c r="A401" s="133">
         <f t="shared" si="7"/>
         <v>400</v>
       </c>
@@ -16789,7 +16882,7 @@
       <c r="K401" s="12"/>
     </row>
     <row r="402" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A402" s="134">
+      <c r="A402" s="133">
         <f t="shared" si="7"/>
         <v>401</v>
       </c>
@@ -16819,7 +16912,7 @@
       <c r="K402" s="12"/>
     </row>
     <row r="403" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A403" s="134">
+      <c r="A403" s="133">
         <f t="shared" si="7"/>
         <v>402</v>
       </c>
@@ -16849,7 +16942,7 @@
       <c r="K403" s="12"/>
     </row>
     <row r="404" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A404" s="134">
+      <c r="A404" s="133">
         <f t="shared" si="7"/>
         <v>403</v>
       </c>
@@ -16879,7 +16972,7 @@
       <c r="K404" s="12"/>
     </row>
     <row r="405" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A405" s="134">
+      <c r="A405" s="133">
         <f t="shared" si="7"/>
         <v>404</v>
       </c>
@@ -16908,8 +17001,8 @@
       <c r="J405" s="51"/>
       <c r="K405" s="12"/>
     </row>
-    <row r="406" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A406" s="136">
+    <row r="406" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A406" s="135">
         <f t="shared" ref="A406:A473" si="8">(A405+1)</f>
         <v>405</v>
       </c>
@@ -16925,21 +17018,21 @@
       <c r="E406" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="F406" s="114" t="s">
+      <c r="F406" s="113" t="s">
         <v>592</v>
       </c>
-      <c r="G406" s="114" t="s">
+      <c r="G406" s="113" t="s">
         <v>593</v>
       </c>
       <c r="H406" s="35" t="s">
         <v>594</v>
       </c>
-      <c r="I406" s="115"/>
-      <c r="J406" s="116"/>
-      <c r="K406" s="117"/>
-    </row>
-    <row r="407" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A407" s="137">
+      <c r="I406" s="114"/>
+      <c r="J406" s="115"/>
+      <c r="K406" s="116"/>
+    </row>
+    <row r="407" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="136">
         <f t="shared" si="8"/>
         <v>406</v>
       </c>
@@ -16964,12 +17057,12 @@
       <c r="H407" s="52" t="s">
         <v>594</v>
       </c>
-      <c r="I407" s="119"/>
-      <c r="J407" s="117"/>
-      <c r="K407" s="117"/>
-    </row>
-    <row r="408" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A408" s="138">
+      <c r="I407" s="118"/>
+      <c r="J407" s="116"/>
+      <c r="K407" s="116"/>
+    </row>
+    <row r="408" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A408" s="137">
         <f t="shared" si="8"/>
         <v>407</v>
       </c>
@@ -16995,11 +17088,11 @@
         <v>594</v>
       </c>
       <c r="I408" s="51"/>
-      <c r="J408" s="117"/>
-      <c r="K408" s="117"/>
-    </row>
-    <row r="409" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A409" s="138">
+      <c r="J408" s="116"/>
+      <c r="K408" s="116"/>
+    </row>
+    <row r="409" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A409" s="137">
         <f t="shared" si="8"/>
         <v>408</v>
       </c>
@@ -17025,11 +17118,11 @@
         <v>594</v>
       </c>
       <c r="I409" s="51"/>
-      <c r="J409" s="117"/>
-      <c r="K409" s="117"/>
-    </row>
-    <row r="410" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A410" s="138">
+      <c r="J409" s="116"/>
+      <c r="K409" s="116"/>
+    </row>
+    <row r="410" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A410" s="137">
         <f t="shared" si="8"/>
         <v>409</v>
       </c>
@@ -17055,11 +17148,11 @@
         <v>594</v>
       </c>
       <c r="I410" s="51"/>
-      <c r="J410" s="117"/>
-      <c r="K410" s="117"/>
-    </row>
-    <row r="411" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A411" s="138">
+      <c r="J410" s="116"/>
+      <c r="K410" s="116"/>
+    </row>
+    <row r="411" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A411" s="137">
         <f t="shared" si="8"/>
         <v>410</v>
       </c>
@@ -17085,11 +17178,11 @@
         <v>594</v>
       </c>
       <c r="I411" s="51"/>
-      <c r="J411" s="117"/>
-      <c r="K411" s="117"/>
-    </row>
-    <row r="412" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A412" s="139">
+      <c r="J411" s="116"/>
+      <c r="K411" s="116"/>
+    </row>
+    <row r="412" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A412" s="138">
         <f t="shared" si="8"/>
         <v>411</v>
       </c>
@@ -17114,12 +17207,12 @@
       <c r="H412" s="54" t="s">
         <v>594</v>
       </c>
-      <c r="I412" s="120"/>
-      <c r="J412" s="117"/>
-      <c r="K412" s="117"/>
-    </row>
-    <row r="413" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A413" s="136">
+      <c r="I412" s="119"/>
+      <c r="J412" s="116"/>
+      <c r="K412" s="116"/>
+    </row>
+    <row r="413" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A413" s="135">
         <f t="shared" si="8"/>
         <v>412</v>
       </c>
@@ -17135,21 +17228,21 @@
       <c r="E413" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="F413" s="114" t="s">
+      <c r="F413" s="113" t="s">
         <v>592</v>
       </c>
-      <c r="G413" s="114" t="s">
+      <c r="G413" s="113" t="s">
         <v>606</v>
       </c>
       <c r="H413" s="35" t="s">
         <v>594</v>
       </c>
-      <c r="I413" s="115"/>
-      <c r="J413" s="116"/>
-      <c r="K413" s="117"/>
-    </row>
-    <row r="414" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A414" s="137">
+      <c r="I413" s="114"/>
+      <c r="J413" s="115"/>
+      <c r="K413" s="116"/>
+    </row>
+    <row r="414" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A414" s="136">
         <f t="shared" si="8"/>
         <v>413</v>
       </c>
@@ -17174,12 +17267,12 @@
       <c r="H414" s="52" t="s">
         <v>594</v>
       </c>
-      <c r="I414" s="119"/>
-      <c r="J414" s="117"/>
-      <c r="K414" s="117"/>
-    </row>
-    <row r="415" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A415" s="139">
+      <c r="I414" s="118"/>
+      <c r="J414" s="116"/>
+      <c r="K414" s="116"/>
+    </row>
+    <row r="415" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A415" s="138">
         <f t="shared" si="8"/>
         <v>414</v>
       </c>
@@ -17204,12 +17297,12 @@
       <c r="H415" s="54" t="s">
         <v>594</v>
       </c>
-      <c r="I415" s="120"/>
-      <c r="J415" s="117"/>
-      <c r="K415" s="117"/>
-    </row>
-    <row r="416" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A416" s="136">
+      <c r="I415" s="119"/>
+      <c r="J415" s="116"/>
+      <c r="K415" s="116"/>
+    </row>
+    <row r="416" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A416" s="135">
         <f t="shared" si="8"/>
         <v>415</v>
       </c>
@@ -17225,21 +17318,21 @@
       <c r="E416" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="F416" s="114" t="s">
+      <c r="F416" s="113" t="s">
         <v>592</v>
       </c>
-      <c r="G416" s="114" t="s">
+      <c r="G416" s="113" t="s">
         <v>593</v>
       </c>
       <c r="H416" s="35" t="s">
         <v>594</v>
       </c>
-      <c r="I416" s="115"/>
-      <c r="J416" s="116"/>
-      <c r="K416" s="117"/>
-    </row>
-    <row r="417" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A417" s="137">
+      <c r="I416" s="114"/>
+      <c r="J416" s="115"/>
+      <c r="K416" s="116"/>
+    </row>
+    <row r="417" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A417" s="136">
         <f t="shared" si="8"/>
         <v>416</v>
       </c>
@@ -17264,12 +17357,12 @@
       <c r="H417" s="52" t="s">
         <v>594</v>
       </c>
-      <c r="I417" s="119"/>
-      <c r="J417" s="117"/>
-      <c r="K417" s="117"/>
-    </row>
-    <row r="418" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A418" s="138">
+      <c r="I417" s="118"/>
+      <c r="J417" s="116"/>
+      <c r="K417" s="116"/>
+    </row>
+    <row r="418" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A418" s="137">
         <f t="shared" si="8"/>
         <v>417</v>
       </c>
@@ -17295,11 +17388,11 @@
         <v>594</v>
       </c>
       <c r="I418" s="51"/>
-      <c r="J418" s="117"/>
-      <c r="K418" s="117"/>
-    </row>
-    <row r="419" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A419" s="138">
+      <c r="J418" s="116"/>
+      <c r="K418" s="116"/>
+    </row>
+    <row r="419" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A419" s="137">
         <f t="shared" si="8"/>
         <v>418</v>
       </c>
@@ -17325,11 +17418,11 @@
         <v>594</v>
       </c>
       <c r="I419" s="51"/>
-      <c r="J419" s="117"/>
-      <c r="K419" s="117"/>
-    </row>
-    <row r="420" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A420" s="139">
+      <c r="J419" s="116"/>
+      <c r="K419" s="116"/>
+    </row>
+    <row r="420" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A420" s="138">
         <f t="shared" si="8"/>
         <v>419</v>
       </c>
@@ -17354,12 +17447,12 @@
       <c r="H420" s="54" t="s">
         <v>594</v>
       </c>
-      <c r="I420" s="120"/>
-      <c r="J420" s="117"/>
-      <c r="K420" s="117"/>
-    </row>
-    <row r="421" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="136">
+      <c r="I420" s="119"/>
+      <c r="J420" s="116"/>
+      <c r="K420" s="116"/>
+    </row>
+    <row r="421" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="135">
         <f t="shared" si="8"/>
         <v>420</v>
       </c>
@@ -17369,27 +17462,27 @@
       <c r="C421" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="D421" s="121" t="s">
+      <c r="D421" s="120" t="s">
         <v>616</v>
       </c>
       <c r="E421" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="F421" s="114" t="s">
+      <c r="F421" s="113" t="s">
         <v>592</v>
       </c>
-      <c r="G421" s="114" t="s">
+      <c r="G421" s="113" t="s">
         <v>593</v>
       </c>
       <c r="H421" s="35" t="s">
         <v>594</v>
       </c>
-      <c r="I421" s="115"/>
-      <c r="J421" s="116"/>
-      <c r="K421" s="117"/>
-    </row>
-    <row r="422" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="137">
+      <c r="I421" s="114"/>
+      <c r="J421" s="115"/>
+      <c r="K421" s="116"/>
+    </row>
+    <row r="422" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="136">
         <f t="shared" si="8"/>
         <v>421</v>
       </c>
@@ -17414,12 +17507,12 @@
       <c r="H422" s="53" t="s">
         <v>618</v>
       </c>
-      <c r="I422" s="119"/>
-      <c r="J422" s="117"/>
-      <c r="K422" s="117"/>
-    </row>
-    <row r="423" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="138">
+      <c r="I422" s="118"/>
+      <c r="J422" s="116"/>
+      <c r="K422" s="116"/>
+    </row>
+    <row r="423" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="137">
         <f t="shared" si="8"/>
         <v>422</v>
       </c>
@@ -17445,11 +17538,11 @@
         <v>618</v>
       </c>
       <c r="I423" s="51"/>
-      <c r="J423" s="117"/>
-      <c r="K423" s="117"/>
-    </row>
-    <row r="424" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="138">
+      <c r="J423" s="116"/>
+      <c r="K423" s="116"/>
+    </row>
+    <row r="424" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="137">
         <f t="shared" si="8"/>
         <v>423</v>
       </c>
@@ -17475,11 +17568,11 @@
         <v>618</v>
       </c>
       <c r="I424" s="51"/>
-      <c r="J424" s="117"/>
-      <c r="K424" s="117"/>
-    </row>
-    <row r="425" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A425" s="138">
+      <c r="J424" s="116"/>
+      <c r="K424" s="116"/>
+    </row>
+    <row r="425" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="137">
         <f t="shared" si="8"/>
         <v>424</v>
       </c>
@@ -17505,11 +17598,11 @@
         <v>618</v>
       </c>
       <c r="I425" s="51"/>
-      <c r="J425" s="117"/>
-      <c r="K425" s="117"/>
-    </row>
-    <row r="426" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A426" s="138">
+      <c r="J425" s="116"/>
+      <c r="K425" s="116"/>
+    </row>
+    <row r="426" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="137">
         <f t="shared" si="8"/>
         <v>425</v>
       </c>
@@ -17535,11 +17628,11 @@
         <v>618</v>
       </c>
       <c r="I426" s="51"/>
-      <c r="J426" s="117"/>
-      <c r="K426" s="117"/>
-    </row>
-    <row r="427" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A427" s="138">
+      <c r="J426" s="116"/>
+      <c r="K426" s="116"/>
+    </row>
+    <row r="427" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="137">
         <f t="shared" si="8"/>
         <v>426</v>
       </c>
@@ -17565,11 +17658,11 @@
         <v>618</v>
       </c>
       <c r="I427" s="51"/>
-      <c r="J427" s="117"/>
-      <c r="K427" s="117"/>
-    </row>
-    <row r="428" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="138">
+      <c r="J427" s="116"/>
+      <c r="K427" s="116"/>
+    </row>
+    <row r="428" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="137">
         <f t="shared" si="8"/>
         <v>427</v>
       </c>
@@ -17595,11 +17688,11 @@
         <v>618</v>
       </c>
       <c r="I428" s="51"/>
-      <c r="J428" s="117"/>
-      <c r="K428" s="117"/>
-    </row>
-    <row r="429" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="138">
+      <c r="J428" s="116"/>
+      <c r="K428" s="116"/>
+    </row>
+    <row r="429" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="137">
         <f t="shared" si="8"/>
         <v>428</v>
       </c>
@@ -17625,11 +17718,11 @@
         <v>618</v>
       </c>
       <c r="I429" s="51"/>
-      <c r="J429" s="117"/>
-      <c r="K429" s="117"/>
-    </row>
-    <row r="430" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A430" s="138">
+      <c r="J429" s="116"/>
+      <c r="K429" s="116"/>
+    </row>
+    <row r="430" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="137">
         <f t="shared" si="8"/>
         <v>429</v>
       </c>
@@ -17655,11 +17748,11 @@
         <v>618</v>
       </c>
       <c r="I430" s="51"/>
-      <c r="J430" s="117"/>
-      <c r="K430" s="117"/>
-    </row>
-    <row r="431" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A431" s="138">
+      <c r="J430" s="116"/>
+      <c r="K430" s="116"/>
+    </row>
+    <row r="431" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="137">
         <f t="shared" si="8"/>
         <v>430</v>
       </c>
@@ -17685,11 +17778,11 @@
         <v>618</v>
       </c>
       <c r="I431" s="51"/>
-      <c r="J431" s="117"/>
-      <c r="K431" s="117"/>
-    </row>
-    <row r="432" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="138">
+      <c r="J431" s="116"/>
+      <c r="K431" s="116"/>
+    </row>
+    <row r="432" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="137">
         <f t="shared" si="8"/>
         <v>431</v>
       </c>
@@ -17715,11 +17808,11 @@
         <v>618</v>
       </c>
       <c r="I432" s="51"/>
-      <c r="J432" s="117"/>
-      <c r="K432" s="117"/>
-    </row>
-    <row r="433" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A433" s="138">
+      <c r="J432" s="116"/>
+      <c r="K432" s="116"/>
+    </row>
+    <row r="433" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="137">
         <f t="shared" si="8"/>
         <v>432</v>
       </c>
@@ -17745,11 +17838,11 @@
         <v>618</v>
       </c>
       <c r="I433" s="51"/>
-      <c r="J433" s="117"/>
-      <c r="K433" s="117"/>
-    </row>
-    <row r="434" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A434" s="138">
+      <c r="J433" s="116"/>
+      <c r="K433" s="116"/>
+    </row>
+    <row r="434" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="137">
         <f t="shared" si="8"/>
         <v>433</v>
       </c>
@@ -17775,11 +17868,11 @@
         <v>618</v>
       </c>
       <c r="I434" s="51"/>
-      <c r="J434" s="117"/>
-      <c r="K434" s="117"/>
-    </row>
-    <row r="435" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A435" s="138">
+      <c r="J434" s="116"/>
+      <c r="K434" s="116"/>
+    </row>
+    <row r="435" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="137">
         <f t="shared" si="8"/>
         <v>434</v>
       </c>
@@ -17805,11 +17898,11 @@
         <v>618</v>
       </c>
       <c r="I435" s="51"/>
-      <c r="J435" s="117"/>
-      <c r="K435" s="117"/>
-    </row>
-    <row r="436" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A436" s="138">
+      <c r="J435" s="116"/>
+      <c r="K435" s="116"/>
+    </row>
+    <row r="436" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="137">
         <f t="shared" si="8"/>
         <v>435</v>
       </c>
@@ -17835,11 +17928,11 @@
         <v>618</v>
       </c>
       <c r="I436" s="51"/>
-      <c r="J436" s="117"/>
-      <c r="K436" s="117"/>
-    </row>
-    <row r="437" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A437" s="138">
+      <c r="J436" s="116"/>
+      <c r="K436" s="116"/>
+    </row>
+    <row r="437" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="137">
         <f t="shared" si="8"/>
         <v>436</v>
       </c>
@@ -17865,11 +17958,11 @@
         <v>618</v>
       </c>
       <c r="I437" s="51"/>
-      <c r="J437" s="117"/>
-      <c r="K437" s="117"/>
-    </row>
-    <row r="438" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="138">
+      <c r="J437" s="116"/>
+      <c r="K437" s="116"/>
+    </row>
+    <row r="438" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="137">
         <f t="shared" si="8"/>
         <v>437</v>
       </c>
@@ -17895,11 +17988,11 @@
         <v>648</v>
       </c>
       <c r="I438" s="51"/>
-      <c r="J438" s="117"/>
-      <c r="K438" s="117"/>
-    </row>
-    <row r="439" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A439" s="138">
+      <c r="J438" s="116"/>
+      <c r="K438" s="116"/>
+    </row>
+    <row r="439" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="137">
         <f t="shared" si="8"/>
         <v>438</v>
       </c>
@@ -17925,11 +18018,11 @@
         <v>648</v>
       </c>
       <c r="I439" s="24"/>
-      <c r="J439" s="117"/>
-      <c r="K439" s="117"/>
-    </row>
-    <row r="440" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A440" s="138">
+      <c r="J439" s="116"/>
+      <c r="K439" s="116"/>
+    </row>
+    <row r="440" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="137">
         <f t="shared" si="8"/>
         <v>439</v>
       </c>
@@ -17955,11 +18048,11 @@
         <v>648</v>
       </c>
       <c r="I440" s="24"/>
-      <c r="J440" s="117"/>
-      <c r="K440" s="117"/>
-    </row>
-    <row r="441" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A441" s="138">
+      <c r="J440" s="116"/>
+      <c r="K440" s="116"/>
+    </row>
+    <row r="441" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="137">
         <f t="shared" si="8"/>
         <v>440</v>
       </c>
@@ -17985,11 +18078,11 @@
         <v>648</v>
       </c>
       <c r="I441" s="24"/>
-      <c r="J441" s="117"/>
-      <c r="K441" s="117"/>
-    </row>
-    <row r="442" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A442" s="138">
+      <c r="J441" s="116"/>
+      <c r="K441" s="116"/>
+    </row>
+    <row r="442" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="137">
         <f t="shared" si="8"/>
         <v>441</v>
       </c>
@@ -18015,18 +18108,18 @@
         <v>648</v>
       </c>
       <c r="I442" s="24"/>
-      <c r="J442" s="117"/>
-      <c r="K442" s="117"/>
-    </row>
-    <row r="443" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A443" s="138">
+      <c r="J442" s="116"/>
+      <c r="K442" s="116"/>
+    </row>
+    <row r="443" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="137">
         <f t="shared" si="8"/>
         <v>442</v>
       </c>
       <c r="B443" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="C443" s="122"/>
+      <c r="C443" s="121"/>
       <c r="D443" s="23" t="s">
         <v>616</v>
       </c>
@@ -18043,18 +18136,18 @@
         <v>648</v>
       </c>
       <c r="I443" s="24"/>
-      <c r="J443" s="117"/>
-      <c r="K443" s="117"/>
-    </row>
-    <row r="444" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A444" s="138">
+      <c r="J443" s="116"/>
+      <c r="K443" s="116"/>
+    </row>
+    <row r="444" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="137">
         <f t="shared" si="8"/>
         <v>443</v>
       </c>
       <c r="B444" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="C444" s="122"/>
+      <c r="C444" s="121"/>
       <c r="D444" s="23" t="s">
         <v>616</v>
       </c>
@@ -18071,11 +18164,11 @@
         <v>657</v>
       </c>
       <c r="I444" s="24"/>
-      <c r="J444" s="117"/>
-      <c r="K444" s="117"/>
-    </row>
-    <row r="445" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A445" s="138">
+      <c r="J444" s="116"/>
+      <c r="K444" s="116"/>
+    </row>
+    <row r="445" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="137">
         <f t="shared" si="8"/>
         <v>444</v>
       </c>
@@ -18101,11 +18194,11 @@
         <v>657</v>
       </c>
       <c r="I445" s="24"/>
-      <c r="J445" s="117"/>
-      <c r="K445" s="117"/>
-    </row>
-    <row r="446" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A446" s="138">
+      <c r="J445" s="116"/>
+      <c r="K445" s="116"/>
+    </row>
+    <row r="446" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="137">
         <f t="shared" si="8"/>
         <v>445</v>
       </c>
@@ -18131,11 +18224,11 @@
         <v>657</v>
       </c>
       <c r="I446" s="24"/>
-      <c r="J446" s="117"/>
-      <c r="K446" s="117"/>
-    </row>
-    <row r="447" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="138">
+      <c r="J446" s="116"/>
+      <c r="K446" s="116"/>
+    </row>
+    <row r="447" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="137">
         <f t="shared" si="8"/>
         <v>446</v>
       </c>
@@ -18161,11 +18254,11 @@
         <v>657</v>
       </c>
       <c r="I447" s="24"/>
-      <c r="J447" s="117"/>
-      <c r="K447" s="117"/>
-    </row>
-    <row r="448" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="138">
+      <c r="J447" s="116"/>
+      <c r="K447" s="116"/>
+    </row>
+    <row r="448" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="137">
         <f t="shared" si="8"/>
         <v>447</v>
       </c>
@@ -18191,11 +18284,11 @@
         <v>657</v>
       </c>
       <c r="I448" s="24"/>
-      <c r="J448" s="117"/>
-      <c r="K448" s="117"/>
-    </row>
-    <row r="449" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A449" s="138">
+      <c r="J448" s="116"/>
+      <c r="K448" s="116"/>
+    </row>
+    <row r="449" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="137">
         <f t="shared" si="8"/>
         <v>448</v>
       </c>
@@ -18221,11 +18314,11 @@
         <v>657</v>
       </c>
       <c r="I449" s="24"/>
-      <c r="J449" s="117"/>
-      <c r="K449" s="117"/>
-    </row>
-    <row r="450" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A450" s="138">
+      <c r="J449" s="116"/>
+      <c r="K449" s="116"/>
+    </row>
+    <row r="450" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="137">
         <f t="shared" si="8"/>
         <v>449</v>
       </c>
@@ -18247,13 +18340,13 @@
       <c r="G450" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="H450" s="123"/>
+      <c r="H450" s="122"/>
       <c r="I450" s="24"/>
-      <c r="J450" s="117"/>
-      <c r="K450" s="117"/>
-    </row>
-    <row r="451" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A451" s="138">
+      <c r="J450" s="116"/>
+      <c r="K450" s="116"/>
+    </row>
+    <row r="451" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="137">
         <f t="shared" si="8"/>
         <v>450</v>
       </c>
@@ -18275,13 +18368,13 @@
       <c r="G451" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="H451" s="123"/>
+      <c r="H451" s="122"/>
       <c r="I451" s="24"/>
-      <c r="J451" s="117"/>
-      <c r="K451" s="117"/>
-    </row>
-    <row r="452" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A452" s="138">
+      <c r="J451" s="116"/>
+      <c r="K451" s="116"/>
+    </row>
+    <row r="452" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="137">
         <f t="shared" si="8"/>
         <v>451</v>
       </c>
@@ -18303,13 +18396,13 @@
       <c r="G452" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="H452" s="123"/>
+      <c r="H452" s="122"/>
       <c r="I452" s="24"/>
-      <c r="J452" s="117"/>
-      <c r="K452" s="117"/>
-    </row>
-    <row r="453" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="138">
+      <c r="J452" s="116"/>
+      <c r="K452" s="116"/>
+    </row>
+    <row r="453" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="137">
         <f t="shared" si="8"/>
         <v>452</v>
       </c>
@@ -18331,13 +18424,13 @@
       <c r="G453" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="H453" s="123"/>
+      <c r="H453" s="122"/>
       <c r="I453" s="24"/>
-      <c r="J453" s="117"/>
-      <c r="K453" s="117"/>
-    </row>
-    <row r="454" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A454" s="138">
+      <c r="J453" s="116"/>
+      <c r="K453" s="116"/>
+    </row>
+    <row r="454" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="137">
         <f t="shared" si="8"/>
         <v>453</v>
       </c>
@@ -18359,13 +18452,13 @@
       <c r="G454" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="H454" s="123"/>
+      <c r="H454" s="122"/>
       <c r="I454" s="24"/>
-      <c r="J454" s="117"/>
-      <c r="K454" s="117"/>
-    </row>
-    <row r="455" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A455" s="138">
+      <c r="J454" s="116"/>
+      <c r="K454" s="116"/>
+    </row>
+    <row r="455" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="137">
         <f t="shared" si="8"/>
         <v>454</v>
       </c>
@@ -18387,13 +18480,13 @@
       <c r="G455" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="H455" s="123"/>
+      <c r="H455" s="122"/>
       <c r="I455" s="24"/>
-      <c r="J455" s="117"/>
-      <c r="K455" s="117"/>
-    </row>
-    <row r="456" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A456" s="138">
+      <c r="J455" s="116"/>
+      <c r="K455" s="116"/>
+    </row>
+    <row r="456" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="137">
         <f t="shared" si="8"/>
         <v>455</v>
       </c>
@@ -18415,13 +18508,13 @@
       <c r="G456" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="H456" s="123"/>
+      <c r="H456" s="122"/>
       <c r="I456" s="24"/>
-      <c r="J456" s="117"/>
-      <c r="K456" s="117"/>
-    </row>
-    <row r="457" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A457" s="138">
+      <c r="J456" s="116"/>
+      <c r="K456" s="116"/>
+    </row>
+    <row r="457" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="137">
         <f t="shared" si="8"/>
         <v>456</v>
       </c>
@@ -18443,13 +18536,13 @@
       <c r="G457" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="H457" s="123"/>
+      <c r="H457" s="122"/>
       <c r="I457" s="24"/>
-      <c r="J457" s="117"/>
-      <c r="K457" s="117"/>
-    </row>
-    <row r="458" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="138">
+      <c r="J457" s="116"/>
+      <c r="K457" s="116"/>
+    </row>
+    <row r="458" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="137">
         <f t="shared" si="8"/>
         <v>457</v>
       </c>
@@ -18471,13 +18564,13 @@
       <c r="G458" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="H458" s="123"/>
+      <c r="H458" s="122"/>
       <c r="I458" s="24"/>
-      <c r="J458" s="117"/>
-      <c r="K458" s="117"/>
-    </row>
-    <row r="459" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A459" s="138">
+      <c r="J458" s="116"/>
+      <c r="K458" s="116"/>
+    </row>
+    <row r="459" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="137">
         <f t="shared" si="8"/>
         <v>458</v>
       </c>
@@ -18499,13 +18592,13 @@
       <c r="G459" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="H459" s="123"/>
+      <c r="H459" s="122"/>
       <c r="I459" s="24"/>
-      <c r="J459" s="117"/>
-      <c r="K459" s="117"/>
-    </row>
-    <row r="460" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A460" s="138">
+      <c r="J459" s="116"/>
+      <c r="K459" s="116"/>
+    </row>
+    <row r="460" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="137">
         <f t="shared" si="8"/>
         <v>459</v>
       </c>
@@ -18527,13 +18620,13 @@
       <c r="G460" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="H460" s="123"/>
+      <c r="H460" s="122"/>
       <c r="I460" s="24"/>
-      <c r="J460" s="117"/>
-      <c r="K460" s="117"/>
-    </row>
-    <row r="461" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A461" s="138">
+      <c r="J460" s="116"/>
+      <c r="K460" s="116"/>
+    </row>
+    <row r="461" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="137">
         <f t="shared" si="8"/>
         <v>460</v>
       </c>
@@ -18555,13 +18648,13 @@
       <c r="G461" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="H461" s="123"/>
+      <c r="H461" s="122"/>
       <c r="I461" s="24"/>
-      <c r="J461" s="117"/>
-      <c r="K461" s="117"/>
-    </row>
-    <row r="462" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="138">
+      <c r="J461" s="116"/>
+      <c r="K461" s="116"/>
+    </row>
+    <row r="462" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="137">
         <f t="shared" si="8"/>
         <v>461</v>
       </c>
@@ -18587,11 +18680,11 @@
         <v>693</v>
       </c>
       <c r="I462" s="24"/>
-      <c r="J462" s="117"/>
-      <c r="K462" s="117"/>
-    </row>
-    <row r="463" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A463" s="138">
+      <c r="J462" s="116"/>
+      <c r="K462" s="116"/>
+    </row>
+    <row r="463" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="137">
         <f t="shared" si="8"/>
         <v>462</v>
       </c>
@@ -18617,11 +18710,11 @@
         <v>693</v>
       </c>
       <c r="I463" s="24"/>
-      <c r="J463" s="117"/>
-      <c r="K463" s="117"/>
-    </row>
-    <row r="464" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A464" s="138">
+      <c r="J463" s="116"/>
+      <c r="K463" s="116"/>
+    </row>
+    <row r="464" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="137">
         <f t="shared" si="8"/>
         <v>463</v>
       </c>
@@ -18647,11 +18740,11 @@
         <v>693</v>
       </c>
       <c r="I464" s="24"/>
-      <c r="J464" s="117"/>
-      <c r="K464" s="117"/>
-    </row>
-    <row r="465" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="138">
+      <c r="J464" s="116"/>
+      <c r="K464" s="116"/>
+    </row>
+    <row r="465" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="137">
         <f t="shared" si="8"/>
         <v>464</v>
       </c>
@@ -18677,11 +18770,11 @@
         <v>693</v>
       </c>
       <c r="I465" s="24"/>
-      <c r="J465" s="117"/>
-      <c r="K465" s="117"/>
-    </row>
-    <row r="466" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A466" s="138">
+      <c r="J465" s="116"/>
+      <c r="K465" s="116"/>
+    </row>
+    <row r="466" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="137">
         <f t="shared" si="8"/>
         <v>465</v>
       </c>
@@ -18707,11 +18800,11 @@
         <v>693</v>
       </c>
       <c r="I466" s="24"/>
-      <c r="J466" s="117"/>
-      <c r="K466" s="117"/>
-    </row>
-    <row r="467" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A467" s="138">
+      <c r="J466" s="116"/>
+      <c r="K466" s="116"/>
+    </row>
+    <row r="467" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="137">
         <f t="shared" si="8"/>
         <v>466</v>
       </c>
@@ -18737,11 +18830,11 @@
         <v>693</v>
       </c>
       <c r="I467" s="24"/>
-      <c r="J467" s="117"/>
-      <c r="K467" s="117"/>
-    </row>
-    <row r="468" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A468" s="138">
+      <c r="J467" s="116"/>
+      <c r="K467" s="116"/>
+    </row>
+    <row r="468" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="137">
         <f t="shared" si="8"/>
         <v>467</v>
       </c>
@@ -18767,11 +18860,11 @@
         <v>693</v>
       </c>
       <c r="I468" s="24"/>
-      <c r="J468" s="117"/>
-      <c r="K468" s="117"/>
-    </row>
-    <row r="469" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A469" s="138">
+      <c r="J468" s="116"/>
+      <c r="K468" s="116"/>
+    </row>
+    <row r="469" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="137">
         <f t="shared" si="8"/>
         <v>468</v>
       </c>
@@ -18797,11 +18890,11 @@
         <v>693</v>
       </c>
       <c r="I469" s="24"/>
-      <c r="J469" s="117"/>
-      <c r="K469" s="117"/>
-    </row>
-    <row r="470" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="138">
+      <c r="J469" s="116"/>
+      <c r="K469" s="116"/>
+    </row>
+    <row r="470" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="137">
         <f t="shared" si="8"/>
         <v>469</v>
       </c>
@@ -18827,11 +18920,11 @@
         <v>710</v>
       </c>
       <c r="I470" s="24"/>
-      <c r="J470" s="117"/>
-      <c r="K470" s="117"/>
-    </row>
-    <row r="471" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A471" s="138">
+      <c r="J470" s="116"/>
+      <c r="K470" s="116"/>
+    </row>
+    <row r="471" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="137">
         <f t="shared" si="8"/>
         <v>470</v>
       </c>
@@ -18857,11 +18950,11 @@
         <v>710</v>
       </c>
       <c r="I471" s="24"/>
-      <c r="J471" s="117"/>
-      <c r="K471" s="117"/>
-    </row>
-    <row r="472" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A472" s="138">
+      <c r="J471" s="116"/>
+      <c r="K471" s="116"/>
+    </row>
+    <row r="472" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="137">
         <f t="shared" si="8"/>
         <v>471</v>
       </c>
@@ -18887,11 +18980,11 @@
         <v>710</v>
       </c>
       <c r="I472" s="24"/>
-      <c r="J472" s="117"/>
-      <c r="K472" s="117"/>
-    </row>
-    <row r="473" spans="1:11" s="118" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A473" s="138">
+      <c r="J472" s="116"/>
+      <c r="K472" s="116"/>
+    </row>
+    <row r="473" spans="1:11" s="117" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="137">
         <f t="shared" si="8"/>
         <v>472</v>
       </c>
@@ -18917,8 +19010,8 @@
         <v>710</v>
       </c>
       <c r="I473" s="24"/>
-      <c r="J473" s="117"/>
-      <c r="K473" s="117"/>
+      <c r="J473" s="116"/>
+      <c r="K473" s="116"/>
     </row>
     <row r="474" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="475" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/public/documentation/aact_data_definitions.xlsx
+++ b/public/documentation/aact_data_definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariannademenko/ID/CTD/aact-admin/public/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02663339-BB3E-3545-8744-A15F1311B820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AC584D-36D5-F14D-BEC0-2F5BDB028E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AACT Tables and Columns" sheetId="1" r:id="rId1"/>
@@ -4342,8 +4342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1022"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A396" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="B400" sqref="B400"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
